--- a/附件2部分.xlsx
+++ b/附件2部分.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Document\university\code\Python_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBB5529-F6F2-44BD-8742-6ADB4456BB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7807EEF5-550D-4F80-8278-04259F946EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="15216" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2688,7 +2688,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="000000"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -2748,15 +2748,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3059,16 +3058,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1001"/>
+  <dimension ref="A1:H988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3098,7 +3097,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>44013</v>
       </c>
       <c r="B2" t="s">
@@ -3124,7 +3123,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>44013</v>
       </c>
       <c r="B3" t="s">
@@ -3150,7 +3149,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>44013</v>
       </c>
       <c r="B4" t="s">
@@ -3176,7 +3175,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>44013</v>
       </c>
       <c r="B5" t="s">
@@ -3202,7 +3201,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>44013</v>
       </c>
       <c r="B6" t="s">
@@ -3228,7 +3227,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>44013</v>
       </c>
       <c r="B7" t="s">
@@ -3254,7 +3253,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>44013</v>
       </c>
       <c r="B8" t="s">
@@ -3280,7 +3279,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>44013</v>
       </c>
       <c r="B9" t="s">
@@ -3306,7 +3305,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>44013</v>
       </c>
       <c r="B10" t="s">
@@ -3332,7 +3331,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>44013</v>
       </c>
       <c r="B11" t="s">
@@ -3358,7 +3357,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>44013</v>
       </c>
       <c r="B12" t="s">
@@ -3384,7 +3383,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>44013</v>
       </c>
       <c r="B13" t="s">
@@ -3410,7 +3409,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>44013</v>
       </c>
       <c r="B14" t="s">
@@ -3436,7 +3435,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>44013</v>
       </c>
       <c r="B15" t="s">
@@ -3462,7 +3461,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>44013</v>
       </c>
       <c r="B16" t="s">
@@ -3488,7 +3487,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>44013</v>
       </c>
       <c r="B17" t="s">
@@ -3514,7 +3513,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>44013</v>
       </c>
       <c r="B18" t="s">
@@ -3540,7 +3539,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>44013</v>
       </c>
       <c r="B19" t="s">
@@ -3566,7 +3565,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>44013</v>
       </c>
       <c r="B20" t="s">
@@ -3592,7 +3591,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>44013</v>
       </c>
       <c r="B21" t="s">
@@ -3618,7 +3617,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>44013</v>
       </c>
       <c r="B22" t="s">
@@ -3644,7 +3643,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>44013</v>
       </c>
       <c r="B23" t="s">
@@ -3670,7 +3669,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>44013</v>
       </c>
       <c r="B24" t="s">
@@ -3696,7 +3695,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>44013</v>
       </c>
       <c r="B25" t="s">
@@ -3722,7 +3721,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>44013</v>
       </c>
       <c r="B26" t="s">
@@ -3748,7 +3747,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>44013</v>
       </c>
       <c r="B27" t="s">
@@ -3774,7 +3773,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>44013</v>
       </c>
       <c r="B28" t="s">
@@ -3800,7 +3799,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>44013</v>
       </c>
       <c r="B29" t="s">
@@ -3826,7 +3825,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>44013</v>
       </c>
       <c r="B30" t="s">
@@ -3852,7 +3851,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>44013</v>
       </c>
       <c r="B31" t="s">
@@ -3878,7 +3877,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>44013</v>
       </c>
       <c r="B32" t="s">
@@ -3904,7 +3903,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>44013</v>
       </c>
       <c r="B33" t="s">
@@ -3930,7 +3929,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="A34" s="4">
         <v>44013</v>
       </c>
       <c r="B34" t="s">
@@ -3956,7 +3955,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <v>44013</v>
       </c>
       <c r="B35" t="s">
@@ -3982,7 +3981,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <v>44013</v>
       </c>
       <c r="B36" t="s">
@@ -4008,7 +4007,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+      <c r="A37" s="4">
         <v>44013</v>
       </c>
       <c r="B37" t="s">
@@ -4034,7 +4033,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="A38" s="4">
         <v>44013</v>
       </c>
       <c r="B38" t="s">
@@ -4060,7 +4059,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+      <c r="A39" s="4">
         <v>44013</v>
       </c>
       <c r="B39" t="s">
@@ -4086,7 +4085,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+      <c r="A40" s="4">
         <v>44013</v>
       </c>
       <c r="B40" t="s">
@@ -4112,7 +4111,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+      <c r="A41" s="4">
         <v>44013</v>
       </c>
       <c r="B41" t="s">
@@ -4138,7 +4137,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+      <c r="A42" s="4">
         <v>44013</v>
       </c>
       <c r="B42" t="s">
@@ -4164,7 +4163,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+      <c r="A43" s="4">
         <v>44013</v>
       </c>
       <c r="B43" t="s">
@@ -4190,7 +4189,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
+      <c r="A44" s="4">
         <v>44013</v>
       </c>
       <c r="B44" t="s">
@@ -4216,7 +4215,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+      <c r="A45" s="4">
         <v>44013</v>
       </c>
       <c r="B45" t="s">
@@ -4242,7 +4241,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
+      <c r="A46" s="4">
         <v>44013</v>
       </c>
       <c r="B46" t="s">
@@ -4268,7 +4267,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
+      <c r="A47" s="4">
         <v>44013</v>
       </c>
       <c r="B47" t="s">
@@ -4294,7 +4293,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
+      <c r="A48" s="4">
         <v>44013</v>
       </c>
       <c r="B48" t="s">
@@ -4320,7 +4319,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
+      <c r="A49" s="4">
         <v>44013</v>
       </c>
       <c r="B49" t="s">
@@ -4346,7 +4345,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
+      <c r="A50" s="4">
         <v>44013</v>
       </c>
       <c r="B50" t="s">
@@ -4372,7 +4371,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
+      <c r="A51" s="4">
         <v>44013</v>
       </c>
       <c r="B51" t="s">
@@ -4398,7 +4397,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
+      <c r="A52" s="4">
         <v>44013</v>
       </c>
       <c r="B52" t="s">
@@ -4424,7 +4423,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
+      <c r="A53" s="4">
         <v>44013</v>
       </c>
       <c r="B53" t="s">
@@ -4450,7 +4449,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
+      <c r="A54" s="4">
         <v>44013</v>
       </c>
       <c r="B54" t="s">
@@ -4476,7 +4475,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
+      <c r="A55" s="4">
         <v>44013</v>
       </c>
       <c r="B55" t="s">
@@ -4502,7 +4501,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
+      <c r="A56" s="4">
         <v>44013</v>
       </c>
       <c r="B56" t="s">
@@ -4528,7 +4527,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
+      <c r="A57" s="4">
         <v>44013</v>
       </c>
       <c r="B57" t="s">
@@ -4554,7 +4553,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
+      <c r="A58" s="4">
         <v>44013</v>
       </c>
       <c r="B58" t="s">
@@ -4580,7 +4579,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
+      <c r="A59" s="4">
         <v>44013</v>
       </c>
       <c r="B59" t="s">
@@ -4606,7 +4605,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
+      <c r="A60" s="4">
         <v>44013</v>
       </c>
       <c r="B60" t="s">
@@ -4632,7 +4631,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
+      <c r="A61" s="4">
         <v>44013</v>
       </c>
       <c r="B61" t="s">
@@ -4658,7 +4657,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
+      <c r="A62" s="4">
         <v>44013</v>
       </c>
       <c r="B62" t="s">
@@ -4684,7 +4683,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
+      <c r="A63" s="4">
         <v>44013</v>
       </c>
       <c r="B63" t="s">
@@ -4710,7 +4709,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+      <c r="A64" s="4">
         <v>44013</v>
       </c>
       <c r="B64" t="s">
@@ -4736,7 +4735,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
+      <c r="A65" s="4">
         <v>44013</v>
       </c>
       <c r="B65" t="s">
@@ -4762,7 +4761,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
+      <c r="A66" s="4">
         <v>44013</v>
       </c>
       <c r="B66" t="s">
@@ -4788,7 +4787,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
+      <c r="A67" s="4">
         <v>44013</v>
       </c>
       <c r="B67" t="s">
@@ -4814,7 +4813,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
+      <c r="A68" s="4">
         <v>44013</v>
       </c>
       <c r="B68" t="s">
@@ -4840,7 +4839,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="5">
+      <c r="A69" s="4">
         <v>44013</v>
       </c>
       <c r="B69" t="s">
@@ -4866,7 +4865,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
+      <c r="A70" s="4">
         <v>44013</v>
       </c>
       <c r="B70" t="s">
@@ -4892,7 +4891,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
+      <c r="A71" s="4">
         <v>44013</v>
       </c>
       <c r="B71" t="s">
@@ -4918,7 +4917,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
+      <c r="A72" s="4">
         <v>44013</v>
       </c>
       <c r="B72" t="s">
@@ -4944,7 +4943,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
+      <c r="A73" s="4">
         <v>44013</v>
       </c>
       <c r="B73" t="s">
@@ -4970,7 +4969,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="5">
+      <c r="A74" s="4">
         <v>44013</v>
       </c>
       <c r="B74" t="s">
@@ -4996,7 +4995,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="5">
+      <c r="A75" s="4">
         <v>44013</v>
       </c>
       <c r="B75" t="s">
@@ -5022,7 +5021,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
+      <c r="A76" s="4">
         <v>44013</v>
       </c>
       <c r="B76" t="s">
@@ -5048,7 +5047,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="5">
+      <c r="A77" s="4">
         <v>44013</v>
       </c>
       <c r="B77" t="s">
@@ -5074,7 +5073,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="5">
+      <c r="A78" s="4">
         <v>44013</v>
       </c>
       <c r="B78" t="s">
@@ -5100,7 +5099,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="5">
+      <c r="A79" s="4">
         <v>44013</v>
       </c>
       <c r="B79" t="s">
@@ -5126,7 +5125,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="5">
+      <c r="A80" s="4">
         <v>44013</v>
       </c>
       <c r="B80" t="s">
@@ -5152,7 +5151,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="5">
+      <c r="A81" s="4">
         <v>44013</v>
       </c>
       <c r="B81" t="s">
@@ -5178,7 +5177,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="5">
+      <c r="A82" s="4">
         <v>44013</v>
       </c>
       <c r="B82" t="s">
@@ -5204,7 +5203,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="5">
+      <c r="A83" s="4">
         <v>44013</v>
       </c>
       <c r="B83" t="s">
@@ -5230,7 +5229,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="5">
+      <c r="A84" s="4">
         <v>44013</v>
       </c>
       <c r="B84" t="s">
@@ -5256,7 +5255,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="5">
+      <c r="A85" s="4">
         <v>44013</v>
       </c>
       <c r="B85" t="s">
@@ -5282,7 +5281,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="5">
+      <c r="A86" s="4">
         <v>44013</v>
       </c>
       <c r="B86" t="s">
@@ -5308,7 +5307,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="5">
+      <c r="A87" s="4">
         <v>44013</v>
       </c>
       <c r="B87" t="s">
@@ -5334,7 +5333,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="5">
+      <c r="A88" s="4">
         <v>44013</v>
       </c>
       <c r="B88" t="s">
@@ -5360,7 +5359,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="5">
+      <c r="A89" s="4">
         <v>44013</v>
       </c>
       <c r="B89" t="s">
@@ -5386,7 +5385,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="5">
+      <c r="A90" s="4">
         <v>44013</v>
       </c>
       <c r="B90" t="s">
@@ -5412,7 +5411,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="5">
+      <c r="A91" s="4">
         <v>44013</v>
       </c>
       <c r="B91" t="s">
@@ -5438,7 +5437,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="5">
+      <c r="A92" s="4">
         <v>44013</v>
       </c>
       <c r="B92" t="s">
@@ -5464,7 +5463,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="5">
+      <c r="A93" s="4">
         <v>44013</v>
       </c>
       <c r="B93" t="s">
@@ -5490,7 +5489,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="5">
+      <c r="A94" s="4">
         <v>44013</v>
       </c>
       <c r="B94" t="s">
@@ -5516,7 +5515,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="5">
+      <c r="A95" s="4">
         <v>44013</v>
       </c>
       <c r="B95" t="s">
@@ -5542,7 +5541,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="5">
+      <c r="A96" s="4">
         <v>44013</v>
       </c>
       <c r="B96" t="s">
@@ -5568,7 +5567,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="5">
+      <c r="A97" s="4">
         <v>44013</v>
       </c>
       <c r="B97" t="s">
@@ -5594,7 +5593,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="5">
+      <c r="A98" s="4">
         <v>44013</v>
       </c>
       <c r="B98" t="s">
@@ -5620,7 +5619,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="5">
+      <c r="A99" s="4">
         <v>44013</v>
       </c>
       <c r="B99" t="s">
@@ -5646,7 +5645,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="5">
+      <c r="A100" s="4">
         <v>44013</v>
       </c>
       <c r="B100" t="s">
@@ -5672,7 +5671,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="5">
+      <c r="A101" s="4">
         <v>44013</v>
       </c>
       <c r="B101" t="s">
@@ -5698,7 +5697,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="5">
+      <c r="A102" s="4">
         <v>44013</v>
       </c>
       <c r="B102" t="s">
@@ -5724,7 +5723,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="5">
+      <c r="A103" s="4">
         <v>44013</v>
       </c>
       <c r="B103" t="s">
@@ -5750,7 +5749,7 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="5">
+      <c r="A104" s="4">
         <v>44013</v>
       </c>
       <c r="B104" t="s">
@@ -5776,7 +5775,7 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="5">
+      <c r="A105" s="4">
         <v>44013</v>
       </c>
       <c r="B105" t="s">
@@ -5802,7 +5801,7 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="5">
+      <c r="A106" s="4">
         <v>44013</v>
       </c>
       <c r="B106" t="s">
@@ -5828,7 +5827,7 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="5">
+      <c r="A107" s="4">
         <v>44013</v>
       </c>
       <c r="B107" t="s">
@@ -5854,7 +5853,7 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="5">
+      <c r="A108" s="4">
         <v>44013</v>
       </c>
       <c r="B108" t="s">
@@ -5880,7 +5879,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="5">
+      <c r="A109" s="4">
         <v>44013</v>
       </c>
       <c r="B109" t="s">
@@ -5906,7 +5905,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="5">
+      <c r="A110" s="4">
         <v>44013</v>
       </c>
       <c r="B110" t="s">
@@ -5932,7 +5931,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="5">
+      <c r="A111" s="4">
         <v>44013</v>
       </c>
       <c r="B111" t="s">
@@ -5958,7 +5957,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="5">
+      <c r="A112" s="4">
         <v>44013</v>
       </c>
       <c r="B112" t="s">
@@ -5984,7 +5983,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="5">
+      <c r="A113" s="4">
         <v>44013</v>
       </c>
       <c r="B113" t="s">
@@ -6010,7 +6009,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="5">
+      <c r="A114" s="4">
         <v>44013</v>
       </c>
       <c r="B114" t="s">
@@ -6036,7 +6035,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="5">
+      <c r="A115" s="4">
         <v>44013</v>
       </c>
       <c r="B115" t="s">
@@ -6062,7 +6061,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="5">
+      <c r="A116" s="4">
         <v>44013</v>
       </c>
       <c r="B116" t="s">
@@ -6088,7 +6087,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="5">
+      <c r="A117" s="4">
         <v>44013</v>
       </c>
       <c r="B117" t="s">
@@ -6114,7 +6113,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="5">
+      <c r="A118" s="4">
         <v>44013</v>
       </c>
       <c r="B118" t="s">
@@ -6140,7 +6139,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="5">
+      <c r="A119" s="4">
         <v>44013</v>
       </c>
       <c r="B119" t="s">
@@ -6166,7 +6165,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="5">
+      <c r="A120" s="4">
         <v>44013</v>
       </c>
       <c r="B120" t="s">
@@ -6192,7 +6191,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="5">
+      <c r="A121" s="4">
         <v>44013</v>
       </c>
       <c r="B121" t="s">
@@ -6218,7 +6217,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="5">
+      <c r="A122" s="4">
         <v>44013</v>
       </c>
       <c r="B122" t="s">
@@ -6244,7 +6243,7 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="5">
+      <c r="A123" s="4">
         <v>44013</v>
       </c>
       <c r="B123" t="s">
@@ -6270,7 +6269,7 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="5">
+      <c r="A124" s="4">
         <v>44013</v>
       </c>
       <c r="B124" t="s">
@@ -6296,7 +6295,7 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="5">
+      <c r="A125" s="4">
         <v>44013</v>
       </c>
       <c r="B125" t="s">
@@ -6322,7 +6321,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="5">
+      <c r="A126" s="4">
         <v>44013</v>
       </c>
       <c r="B126" t="s">
@@ -6348,7 +6347,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="5">
+      <c r="A127" s="4">
         <v>44013</v>
       </c>
       <c r="B127" t="s">
@@ -6374,7 +6373,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="5">
+      <c r="A128" s="4">
         <v>44013</v>
       </c>
       <c r="B128" t="s">
@@ -6400,7 +6399,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="5">
+      <c r="A129" s="4">
         <v>44013</v>
       </c>
       <c r="B129" t="s">
@@ -6426,7 +6425,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="5">
+      <c r="A130" s="4">
         <v>44013</v>
       </c>
       <c r="B130" t="s">
@@ -6452,7 +6451,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="5">
+      <c r="A131" s="4">
         <v>44013</v>
       </c>
       <c r="B131" t="s">
@@ -6478,7 +6477,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="5">
+      <c r="A132" s="4">
         <v>44013</v>
       </c>
       <c r="B132" t="s">
@@ -6504,7 +6503,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="5">
+      <c r="A133" s="4">
         <v>44013</v>
       </c>
       <c r="B133" t="s">
@@ -6530,7 +6529,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="5">
+      <c r="A134" s="4">
         <v>44013</v>
       </c>
       <c r="B134" t="s">
@@ -6556,7 +6555,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="5">
+      <c r="A135" s="4">
         <v>44013</v>
       </c>
       <c r="B135" t="s">
@@ -6582,7 +6581,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="5">
+      <c r="A136" s="4">
         <v>44013</v>
       </c>
       <c r="B136" t="s">
@@ -6608,7 +6607,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="5">
+      <c r="A137" s="4">
         <v>44013</v>
       </c>
       <c r="B137" t="s">
@@ -6634,7 +6633,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="5">
+      <c r="A138" s="4">
         <v>44013</v>
       </c>
       <c r="B138" t="s">
@@ -6660,7 +6659,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="5">
+      <c r="A139" s="4">
         <v>44013</v>
       </c>
       <c r="B139" t="s">
@@ -6686,7 +6685,7 @@
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="5">
+      <c r="A140" s="4">
         <v>44013</v>
       </c>
       <c r="B140" t="s">
@@ -6712,7 +6711,7 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="5">
+      <c r="A141" s="4">
         <v>44013</v>
       </c>
       <c r="B141" t="s">
@@ -6738,7 +6737,7 @@
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="5">
+      <c r="A142" s="4">
         <v>44013</v>
       </c>
       <c r="B142" t="s">
@@ -6764,7 +6763,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="5">
+      <c r="A143" s="4">
         <v>44013</v>
       </c>
       <c r="B143" t="s">
@@ -6790,7 +6789,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="5">
+      <c r="A144" s="4">
         <v>44013</v>
       </c>
       <c r="B144" t="s">
@@ -6816,7 +6815,7 @@
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="5">
+      <c r="A145" s="4">
         <v>44013</v>
       </c>
       <c r="B145" t="s">
@@ -6842,7 +6841,7 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="5">
+      <c r="A146" s="4">
         <v>44013</v>
       </c>
       <c r="B146" t="s">
@@ -6868,7 +6867,7 @@
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="5">
+      <c r="A147" s="4">
         <v>44013</v>
       </c>
       <c r="B147" t="s">
@@ -6894,7 +6893,7 @@
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="5">
+      <c r="A148" s="4">
         <v>44013</v>
       </c>
       <c r="B148" t="s">
@@ -6920,7 +6919,7 @@
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="5">
+      <c r="A149" s="4">
         <v>44013</v>
       </c>
       <c r="B149" t="s">
@@ -6946,7 +6945,7 @@
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="5">
+      <c r="A150" s="4">
         <v>44013</v>
       </c>
       <c r="B150" t="s">
@@ -6972,7 +6971,7 @@
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="5">
+      <c r="A151" s="4">
         <v>44013</v>
       </c>
       <c r="B151" t="s">
@@ -6998,7 +6997,7 @@
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="5">
+      <c r="A152" s="4">
         <v>44013</v>
       </c>
       <c r="B152" t="s">
@@ -7024,7 +7023,7 @@
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="5">
+      <c r="A153" s="4">
         <v>44013</v>
       </c>
       <c r="B153" t="s">
@@ -7050,7 +7049,7 @@
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="5">
+      <c r="A154" s="4">
         <v>44013</v>
       </c>
       <c r="B154" t="s">
@@ -7076,7 +7075,7 @@
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="5">
+      <c r="A155" s="4">
         <v>44013</v>
       </c>
       <c r="B155" t="s">
@@ -7102,7 +7101,7 @@
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="5">
+      <c r="A156" s="4">
         <v>44013</v>
       </c>
       <c r="B156" t="s">
@@ -7128,7 +7127,7 @@
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="5">
+      <c r="A157" s="4">
         <v>44013</v>
       </c>
       <c r="B157" t="s">
@@ -7154,7 +7153,7 @@
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="5">
+      <c r="A158" s="4">
         <v>44013</v>
       </c>
       <c r="B158" t="s">
@@ -7180,7 +7179,7 @@
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="5">
+      <c r="A159" s="4">
         <v>44013</v>
       </c>
       <c r="B159" t="s">
@@ -7206,7 +7205,7 @@
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="5">
+      <c r="A160" s="4">
         <v>44013</v>
       </c>
       <c r="B160" t="s">
@@ -7232,7 +7231,7 @@
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="5">
+      <c r="A161" s="4">
         <v>44013</v>
       </c>
       <c r="B161" t="s">
@@ -7258,7 +7257,7 @@
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="5">
+      <c r="A162" s="4">
         <v>44013</v>
       </c>
       <c r="B162" t="s">
@@ -7284,7 +7283,7 @@
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="5">
+      <c r="A163" s="4">
         <v>44013</v>
       </c>
       <c r="B163" t="s">
@@ -7310,7 +7309,7 @@
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="5">
+      <c r="A164" s="4">
         <v>44013</v>
       </c>
       <c r="B164" t="s">
@@ -7336,7 +7335,7 @@
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="5">
+      <c r="A165" s="4">
         <v>44013</v>
       </c>
       <c r="B165" t="s">
@@ -7362,7 +7361,7 @@
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="5">
+      <c r="A166" s="4">
         <v>44013</v>
       </c>
       <c r="B166" t="s">
@@ -7388,7 +7387,7 @@
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="5">
+      <c r="A167" s="4">
         <v>44013</v>
       </c>
       <c r="B167" t="s">
@@ -7414,7 +7413,7 @@
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="5">
+      <c r="A168" s="4">
         <v>44013</v>
       </c>
       <c r="B168" t="s">
@@ -7440,7 +7439,7 @@
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="5">
+      <c r="A169" s="4">
         <v>44013</v>
       </c>
       <c r="B169" t="s">
@@ -7466,7 +7465,7 @@
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="5">
+      <c r="A170" s="4">
         <v>44013</v>
       </c>
       <c r="B170" t="s">
@@ -7492,7 +7491,7 @@
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="5">
+      <c r="A171" s="4">
         <v>44013</v>
       </c>
       <c r="B171" t="s">
@@ -7518,7 +7517,7 @@
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="5">
+      <c r="A172" s="4">
         <v>44013</v>
       </c>
       <c r="B172" t="s">
@@ -7544,7 +7543,7 @@
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="5">
+      <c r="A173" s="4">
         <v>44013</v>
       </c>
       <c r="B173" t="s">
@@ -7570,7 +7569,7 @@
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="5">
+      <c r="A174" s="4">
         <v>44013</v>
       </c>
       <c r="B174" t="s">
@@ -7596,7 +7595,7 @@
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="5">
+      <c r="A175" s="4">
         <v>44013</v>
       </c>
       <c r="B175" t="s">
@@ -7622,7 +7621,7 @@
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="5">
+      <c r="A176" s="4">
         <v>44013</v>
       </c>
       <c r="B176" t="s">
@@ -7648,7 +7647,7 @@
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="5">
+      <c r="A177" s="4">
         <v>44013</v>
       </c>
       <c r="B177" t="s">
@@ -7674,7 +7673,7 @@
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="5">
+      <c r="A178" s="4">
         <v>44013</v>
       </c>
       <c r="B178" t="s">
@@ -7700,7 +7699,7 @@
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="5">
+      <c r="A179" s="4">
         <v>44013</v>
       </c>
       <c r="B179" t="s">
@@ -7726,7 +7725,7 @@
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="5">
+      <c r="A180" s="4">
         <v>44013</v>
       </c>
       <c r="B180" t="s">
@@ -7752,7 +7751,7 @@
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="5">
+      <c r="A181" s="4">
         <v>44013</v>
       </c>
       <c r="B181" t="s">
@@ -7778,7 +7777,7 @@
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="5">
+      <c r="A182" s="4">
         <v>44013</v>
       </c>
       <c r="B182" t="s">
@@ -7804,7 +7803,7 @@
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="5">
+      <c r="A183" s="4">
         <v>44013</v>
       </c>
       <c r="B183" t="s">
@@ -7830,7 +7829,7 @@
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="5">
+      <c r="A184" s="4">
         <v>44013</v>
       </c>
       <c r="B184" t="s">
@@ -7856,7 +7855,7 @@
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="5">
+      <c r="A185" s="4">
         <v>44013</v>
       </c>
       <c r="B185" t="s">
@@ -7882,7 +7881,7 @@
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="5">
+      <c r="A186" s="4">
         <v>44013</v>
       </c>
       <c r="B186" t="s">
@@ -7908,7 +7907,7 @@
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="5">
+      <c r="A187" s="4">
         <v>44013</v>
       </c>
       <c r="B187" t="s">
@@ -7934,7 +7933,7 @@
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="5">
+      <c r="A188" s="4">
         <v>44013</v>
       </c>
       <c r="B188" t="s">
@@ -7960,7 +7959,7 @@
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="5">
+      <c r="A189" s="4">
         <v>44013</v>
       </c>
       <c r="B189" t="s">
@@ -7986,7 +7985,7 @@
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="5">
+      <c r="A190" s="4">
         <v>44013</v>
       </c>
       <c r="B190" t="s">
@@ -8012,7 +8011,7 @@
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="5">
+      <c r="A191" s="4">
         <v>44013</v>
       </c>
       <c r="B191" t="s">
@@ -8038,7 +8037,7 @@
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="5">
+      <c r="A192" s="4">
         <v>44013</v>
       </c>
       <c r="B192" t="s">
@@ -8064,7 +8063,7 @@
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="5">
+      <c r="A193" s="4">
         <v>44013</v>
       </c>
       <c r="B193" t="s">
@@ -8090,7 +8089,7 @@
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="5">
+      <c r="A194" s="4">
         <v>44013</v>
       </c>
       <c r="B194" t="s">
@@ -8116,7 +8115,7 @@
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="5">
+      <c r="A195" s="4">
         <v>44013</v>
       </c>
       <c r="B195" t="s">
@@ -8142,7 +8141,7 @@
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="5">
+      <c r="A196" s="4">
         <v>44013</v>
       </c>
       <c r="B196" t="s">
@@ -8168,7 +8167,7 @@
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="5">
+      <c r="A197" s="4">
         <v>44013</v>
       </c>
       <c r="B197" t="s">
@@ -8194,7 +8193,7 @@
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" s="5">
+      <c r="A198" s="4">
         <v>44013</v>
       </c>
       <c r="B198" t="s">
@@ -8220,7 +8219,7 @@
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="5">
+      <c r="A199" s="4">
         <v>44013</v>
       </c>
       <c r="B199" t="s">
@@ -8246,7 +8245,7 @@
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="5">
+      <c r="A200" s="4">
         <v>44013</v>
       </c>
       <c r="B200" t="s">
@@ -8272,7 +8271,7 @@
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" s="5">
+      <c r="A201" s="4">
         <v>44013</v>
       </c>
       <c r="B201" t="s">
@@ -8298,7 +8297,7 @@
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="5">
+      <c r="A202" s="4">
         <v>44013</v>
       </c>
       <c r="B202" t="s">
@@ -8324,7 +8323,7 @@
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="5">
+      <c r="A203" s="4">
         <v>44013</v>
       </c>
       <c r="B203" t="s">
@@ -8350,7 +8349,7 @@
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="5">
+      <c r="A204" s="4">
         <v>44013</v>
       </c>
       <c r="B204" t="s">
@@ -8376,7 +8375,7 @@
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" s="5">
+      <c r="A205" s="4">
         <v>44013</v>
       </c>
       <c r="B205" t="s">
@@ -8402,7 +8401,7 @@
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" s="5">
+      <c r="A206" s="4">
         <v>44013</v>
       </c>
       <c r="B206" t="s">
@@ -8428,7 +8427,7 @@
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" s="5">
+      <c r="A207" s="4">
         <v>44013</v>
       </c>
       <c r="B207" t="s">
@@ -8454,7 +8453,7 @@
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208" s="5">
+      <c r="A208" s="4">
         <v>44013</v>
       </c>
       <c r="B208" t="s">
@@ -8480,7 +8479,7 @@
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" s="5">
+      <c r="A209" s="4">
         <v>44013</v>
       </c>
       <c r="B209" t="s">
@@ -8506,7 +8505,7 @@
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="5">
+      <c r="A210" s="4">
         <v>44013</v>
       </c>
       <c r="B210" t="s">
@@ -8532,7 +8531,7 @@
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" s="5">
+      <c r="A211" s="4">
         <v>44013</v>
       </c>
       <c r="B211" t="s">
@@ -8558,7 +8557,7 @@
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A212" s="5">
+      <c r="A212" s="4">
         <v>44013</v>
       </c>
       <c r="B212" t="s">
@@ -8584,7 +8583,7 @@
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A213" s="5">
+      <c r="A213" s="4">
         <v>44013</v>
       </c>
       <c r="B213" t="s">
@@ -8610,7 +8609,7 @@
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A214" s="5">
+      <c r="A214" s="4">
         <v>44013</v>
       </c>
       <c r="B214" t="s">
@@ -8636,7 +8635,7 @@
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A215" s="5">
+      <c r="A215" s="4">
         <v>44013</v>
       </c>
       <c r="B215" t="s">
@@ -8662,7 +8661,7 @@
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" s="5">
+      <c r="A216" s="4">
         <v>44013</v>
       </c>
       <c r="B216" t="s">
@@ -8688,7 +8687,7 @@
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217" s="5">
+      <c r="A217" s="4">
         <v>44013</v>
       </c>
       <c r="B217" t="s">
@@ -8714,7 +8713,7 @@
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218" s="5">
+      <c r="A218" s="4">
         <v>44013</v>
       </c>
       <c r="B218" t="s">
@@ -8740,7 +8739,7 @@
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" s="5">
+      <c r="A219" s="4">
         <v>44013</v>
       </c>
       <c r="B219" t="s">
@@ -8766,7 +8765,7 @@
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A220" s="5">
+      <c r="A220" s="4">
         <v>44013</v>
       </c>
       <c r="B220" t="s">
@@ -8792,7 +8791,7 @@
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221" s="5">
+      <c r="A221" s="4">
         <v>44013</v>
       </c>
       <c r="B221" t="s">
@@ -8818,7 +8817,7 @@
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A222" s="5">
+      <c r="A222" s="4">
         <v>44013</v>
       </c>
       <c r="B222" t="s">
@@ -8844,7 +8843,7 @@
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" s="5">
+      <c r="A223" s="4">
         <v>44013</v>
       </c>
       <c r="B223" t="s">
@@ -8870,7 +8869,7 @@
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224" s="5">
+      <c r="A224" s="4">
         <v>44013</v>
       </c>
       <c r="B224" t="s">
@@ -8896,7 +8895,7 @@
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225" s="5">
+      <c r="A225" s="4">
         <v>44013</v>
       </c>
       <c r="B225" t="s">
@@ -8922,7 +8921,7 @@
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226" s="5">
+      <c r="A226" s="4">
         <v>44013</v>
       </c>
       <c r="B226" t="s">
@@ -8948,7 +8947,7 @@
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" s="5">
+      <c r="A227" s="4">
         <v>44013</v>
       </c>
       <c r="B227" t="s">
@@ -8974,7 +8973,7 @@
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A228" s="5">
+      <c r="A228" s="4">
         <v>44013</v>
       </c>
       <c r="B228" t="s">
@@ -9000,7 +8999,7 @@
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229" s="5">
+      <c r="A229" s="4">
         <v>44013</v>
       </c>
       <c r="B229" t="s">
@@ -9026,7 +9025,7 @@
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A230" s="5">
+      <c r="A230" s="4">
         <v>44013</v>
       </c>
       <c r="B230" t="s">
@@ -9052,7 +9051,7 @@
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231" s="5">
+      <c r="A231" s="4">
         <v>44013</v>
       </c>
       <c r="B231" t="s">
@@ -9078,7 +9077,7 @@
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A232" s="5">
+      <c r="A232" s="4">
         <v>44013</v>
       </c>
       <c r="B232" t="s">
@@ -9104,7 +9103,7 @@
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233" s="5">
+      <c r="A233" s="4">
         <v>44013</v>
       </c>
       <c r="B233" t="s">
@@ -9130,7 +9129,7 @@
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234" s="5">
+      <c r="A234" s="4">
         <v>44013</v>
       </c>
       <c r="B234" t="s">
@@ -9156,7 +9155,7 @@
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" s="5">
+      <c r="A235" s="4">
         <v>44013</v>
       </c>
       <c r="B235" t="s">
@@ -9182,7 +9181,7 @@
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236" s="5">
+      <c r="A236" s="4">
         <v>44013</v>
       </c>
       <c r="B236" t="s">
@@ -9208,7 +9207,7 @@
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A237" s="5">
+      <c r="A237" s="4">
         <v>44013</v>
       </c>
       <c r="B237" t="s">
@@ -9234,7 +9233,7 @@
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A238" s="5">
+      <c r="A238" s="4">
         <v>44013</v>
       </c>
       <c r="B238" t="s">
@@ -9260,7 +9259,7 @@
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A239" s="5">
+      <c r="A239" s="4">
         <v>44013</v>
       </c>
       <c r="B239" t="s">
@@ -9286,7 +9285,7 @@
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A240" s="5">
+      <c r="A240" s="4">
         <v>44013</v>
       </c>
       <c r="B240" t="s">
@@ -9312,7 +9311,7 @@
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241" s="5">
+      <c r="A241" s="4">
         <v>44013</v>
       </c>
       <c r="B241" t="s">
@@ -9338,7 +9337,7 @@
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242" s="5">
+      <c r="A242" s="4">
         <v>44013</v>
       </c>
       <c r="B242" t="s">
@@ -9364,7 +9363,7 @@
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" s="5">
+      <c r="A243" s="4">
         <v>44013</v>
       </c>
       <c r="B243" t="s">
@@ -9390,7 +9389,7 @@
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" s="5">
+      <c r="A244" s="4">
         <v>44013</v>
       </c>
       <c r="B244" t="s">
@@ -9416,7 +9415,7 @@
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245" s="5">
+      <c r="A245" s="4">
         <v>44013</v>
       </c>
       <c r="B245" t="s">
@@ -9442,7 +9441,7 @@
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A246" s="5">
+      <c r="A246" s="4">
         <v>44013</v>
       </c>
       <c r="B246" t="s">
@@ -9468,7 +9467,7 @@
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A247" s="5">
+      <c r="A247" s="4">
         <v>44013</v>
       </c>
       <c r="B247" t="s">
@@ -9494,7 +9493,7 @@
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A248" s="5">
+      <c r="A248" s="4">
         <v>44013</v>
       </c>
       <c r="B248" t="s">
@@ -9520,7 +9519,7 @@
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249" s="5">
+      <c r="A249" s="4">
         <v>44013</v>
       </c>
       <c r="B249" t="s">
@@ -9546,7 +9545,7 @@
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A250" s="5">
+      <c r="A250" s="4">
         <v>44013</v>
       </c>
       <c r="B250" t="s">
@@ -9572,7 +9571,7 @@
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" s="5">
+      <c r="A251" s="4">
         <v>44013</v>
       </c>
       <c r="B251" t="s">
@@ -9598,7 +9597,7 @@
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252" s="5">
+      <c r="A252" s="4">
         <v>44013</v>
       </c>
       <c r="B252" t="s">
@@ -9624,7 +9623,7 @@
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253" s="5">
+      <c r="A253" s="4">
         <v>44013</v>
       </c>
       <c r="B253" t="s">
@@ -9650,7 +9649,7 @@
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A254" s="5">
+      <c r="A254" s="4">
         <v>44013</v>
       </c>
       <c r="B254" t="s">
@@ -9676,7 +9675,7 @@
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A255" s="5">
+      <c r="A255" s="4">
         <v>44013</v>
       </c>
       <c r="B255" t="s">
@@ -9702,7 +9701,7 @@
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A256" s="5">
+      <c r="A256" s="4">
         <v>44013</v>
       </c>
       <c r="B256" t="s">
@@ -9728,7 +9727,7 @@
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257" s="5">
+      <c r="A257" s="4">
         <v>44013</v>
       </c>
       <c r="B257" t="s">
@@ -9754,7 +9753,7 @@
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A258" s="5">
+      <c r="A258" s="4">
         <v>44013</v>
       </c>
       <c r="B258" t="s">
@@ -9780,7 +9779,7 @@
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259" s="5">
+      <c r="A259" s="4">
         <v>44013</v>
       </c>
       <c r="B259" t="s">
@@ -9806,7 +9805,7 @@
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A260" s="5">
+      <c r="A260" s="4">
         <v>44013</v>
       </c>
       <c r="B260" t="s">
@@ -9832,7 +9831,7 @@
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261" s="5">
+      <c r="A261" s="4">
         <v>44013</v>
       </c>
       <c r="B261" t="s">
@@ -9858,7 +9857,7 @@
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262" s="5">
+      <c r="A262" s="4">
         <v>44013</v>
       </c>
       <c r="B262" t="s">
@@ -9884,7 +9883,7 @@
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A263" s="5">
+      <c r="A263" s="4">
         <v>44013</v>
       </c>
       <c r="B263" t="s">
@@ -9910,7 +9909,7 @@
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A264" s="5">
+      <c r="A264" s="4">
         <v>44013</v>
       </c>
       <c r="B264" t="s">
@@ -9936,7 +9935,7 @@
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A265" s="5">
+      <c r="A265" s="4">
         <v>44013</v>
       </c>
       <c r="B265" t="s">
@@ -9962,7 +9961,7 @@
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A266" s="5">
+      <c r="A266" s="4">
         <v>44013</v>
       </c>
       <c r="B266" t="s">
@@ -9988,7 +9987,7 @@
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A267" s="5">
+      <c r="A267" s="4">
         <v>44013</v>
       </c>
       <c r="B267" t="s">
@@ -10014,7 +10013,7 @@
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A268" s="5">
+      <c r="A268" s="4">
         <v>44013</v>
       </c>
       <c r="B268" t="s">
@@ -10040,7 +10039,7 @@
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A269" s="5">
+      <c r="A269" s="4">
         <v>44013</v>
       </c>
       <c r="B269" t="s">
@@ -10066,7 +10065,7 @@
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A270" s="5">
+      <c r="A270" s="4">
         <v>44013</v>
       </c>
       <c r="B270" t="s">
@@ -10092,7 +10091,7 @@
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A271" s="5">
+      <c r="A271" s="4">
         <v>44013</v>
       </c>
       <c r="B271" t="s">
@@ -10118,7 +10117,7 @@
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A272" s="5">
+      <c r="A272" s="4">
         <v>44013</v>
       </c>
       <c r="B272" t="s">
@@ -10144,7 +10143,7 @@
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A273" s="5">
+      <c r="A273" s="4">
         <v>44013</v>
       </c>
       <c r="B273" t="s">
@@ -10170,7 +10169,7 @@
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A274" s="5">
+      <c r="A274" s="4">
         <v>44013</v>
       </c>
       <c r="B274" t="s">
@@ -10196,7 +10195,7 @@
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A275" s="5">
+      <c r="A275" s="4">
         <v>44013</v>
       </c>
       <c r="B275" t="s">
@@ -10222,7 +10221,7 @@
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A276" s="5">
+      <c r="A276" s="4">
         <v>44013</v>
       </c>
       <c r="B276" t="s">
@@ -10248,7 +10247,7 @@
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A277" s="5">
+      <c r="A277" s="4">
         <v>44013</v>
       </c>
       <c r="B277" t="s">
@@ -10274,7 +10273,7 @@
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A278" s="5">
+      <c r="A278" s="4">
         <v>44013</v>
       </c>
       <c r="B278" t="s">
@@ -10300,7 +10299,7 @@
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A279" s="5">
+      <c r="A279" s="4">
         <v>44013</v>
       </c>
       <c r="B279" t="s">
@@ -10326,7 +10325,7 @@
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A280" s="5">
+      <c r="A280" s="4">
         <v>44013</v>
       </c>
       <c r="B280" t="s">
@@ -10352,7 +10351,7 @@
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A281" s="5">
+      <c r="A281" s="4">
         <v>44013</v>
       </c>
       <c r="B281" t="s">
@@ -10378,7 +10377,7 @@
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A282" s="5">
+      <c r="A282" s="4">
         <v>44013</v>
       </c>
       <c r="B282" t="s">
@@ -10404,7 +10403,7 @@
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A283" s="5">
+      <c r="A283" s="4">
         <v>44013</v>
       </c>
       <c r="B283" t="s">
@@ -10430,7 +10429,7 @@
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A284" s="5">
+      <c r="A284" s="4">
         <v>44013</v>
       </c>
       <c r="B284" t="s">
@@ -10456,7 +10455,7 @@
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A285" s="5">
+      <c r="A285" s="4">
         <v>44013</v>
       </c>
       <c r="B285" t="s">
@@ -10482,7 +10481,7 @@
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A286" s="5">
+      <c r="A286" s="4">
         <v>44013</v>
       </c>
       <c r="B286" t="s">
@@ -10508,7 +10507,7 @@
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A287" s="5">
+      <c r="A287" s="4">
         <v>44013</v>
       </c>
       <c r="B287" t="s">
@@ -10534,7 +10533,7 @@
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A288" s="5">
+      <c r="A288" s="4">
         <v>44013</v>
       </c>
       <c r="B288" t="s">
@@ -10560,7 +10559,7 @@
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A289" s="5">
+      <c r="A289" s="4">
         <v>44013</v>
       </c>
       <c r="B289" t="s">
@@ -10586,7 +10585,7 @@
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A290" s="5">
+      <c r="A290" s="4">
         <v>44013</v>
       </c>
       <c r="B290" t="s">
@@ -10612,7 +10611,7 @@
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A291" s="5">
+      <c r="A291" s="4">
         <v>44013</v>
       </c>
       <c r="B291" t="s">
@@ -10638,7 +10637,7 @@
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A292" s="5">
+      <c r="A292" s="4">
         <v>44013</v>
       </c>
       <c r="B292" t="s">
@@ -10664,7 +10663,7 @@
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A293" s="5">
+      <c r="A293" s="4">
         <v>44013</v>
       </c>
       <c r="B293" t="s">
@@ -10690,7 +10689,7 @@
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A294" s="5">
+      <c r="A294" s="4">
         <v>44013</v>
       </c>
       <c r="B294" t="s">
@@ -10716,7 +10715,7 @@
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A295" s="5">
+      <c r="A295" s="4">
         <v>44013</v>
       </c>
       <c r="B295" t="s">
@@ -10742,7 +10741,7 @@
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A296" s="5">
+      <c r="A296" s="4">
         <v>44013</v>
       </c>
       <c r="B296" t="s">
@@ -10768,7 +10767,7 @@
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A297" s="5">
+      <c r="A297" s="4">
         <v>44013</v>
       </c>
       <c r="B297" t="s">
@@ -10794,7 +10793,7 @@
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A298" s="5">
+      <c r="A298" s="4">
         <v>44013</v>
       </c>
       <c r="B298" t="s">
@@ -10820,7 +10819,7 @@
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A299" s="5">
+      <c r="A299" s="4">
         <v>44013</v>
       </c>
       <c r="B299" t="s">
@@ -10846,7 +10845,7 @@
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A300" s="5">
+      <c r="A300" s="4">
         <v>44013</v>
       </c>
       <c r="B300" t="s">
@@ -10872,7 +10871,7 @@
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A301" s="5">
+      <c r="A301" s="4">
         <v>44013</v>
       </c>
       <c r="B301" t="s">
@@ -10898,7 +10897,7 @@
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A302" s="5">
+      <c r="A302" s="4">
         <v>44013</v>
       </c>
       <c r="B302" t="s">
@@ -10924,7 +10923,7 @@
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A303" s="5">
+      <c r="A303" s="4">
         <v>44013</v>
       </c>
       <c r="B303" t="s">
@@ -10950,7 +10949,7 @@
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A304" s="5">
+      <c r="A304" s="4">
         <v>44013</v>
       </c>
       <c r="B304" t="s">
@@ -10976,7 +10975,7 @@
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A305" s="5">
+      <c r="A305" s="4">
         <v>44013</v>
       </c>
       <c r="B305" t="s">
@@ -11002,7 +11001,7 @@
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A306" s="5">
+      <c r="A306" s="4">
         <v>44013</v>
       </c>
       <c r="B306" t="s">
@@ -11028,7 +11027,7 @@
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A307" s="5">
+      <c r="A307" s="4">
         <v>44013</v>
       </c>
       <c r="B307" t="s">
@@ -11054,7 +11053,7 @@
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A308" s="5">
+      <c r="A308" s="4">
         <v>44013</v>
       </c>
       <c r="B308" t="s">
@@ -11080,7 +11079,7 @@
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A309" s="5">
+      <c r="A309" s="4">
         <v>44013</v>
       </c>
       <c r="B309" t="s">
@@ -11106,7 +11105,7 @@
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A310" s="5">
+      <c r="A310" s="4">
         <v>44013</v>
       </c>
       <c r="B310" t="s">
@@ -11132,7 +11131,7 @@
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A311" s="5">
+      <c r="A311" s="4">
         <v>44013</v>
       </c>
       <c r="B311" t="s">
@@ -11158,7 +11157,7 @@
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A312" s="5">
+      <c r="A312" s="4">
         <v>44013</v>
       </c>
       <c r="B312" t="s">
@@ -11184,7 +11183,7 @@
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A313" s="5">
+      <c r="A313" s="4">
         <v>44013</v>
       </c>
       <c r="B313" t="s">
@@ -11210,7 +11209,7 @@
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A314" s="5">
+      <c r="A314" s="4">
         <v>44013</v>
       </c>
       <c r="B314" t="s">
@@ -11236,7 +11235,7 @@
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A315" s="5">
+      <c r="A315" s="4">
         <v>44013</v>
       </c>
       <c r="B315" t="s">
@@ -11262,7 +11261,7 @@
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A316" s="5">
+      <c r="A316" s="4">
         <v>44013</v>
       </c>
       <c r="B316" t="s">
@@ -11288,7 +11287,7 @@
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A317" s="5">
+      <c r="A317" s="4">
         <v>44013</v>
       </c>
       <c r="B317" t="s">
@@ -11314,7 +11313,7 @@
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A318" s="5">
+      <c r="A318" s="4">
         <v>44013</v>
       </c>
       <c r="B318" t="s">
@@ -11340,7 +11339,7 @@
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A319" s="5">
+      <c r="A319" s="4">
         <v>44013</v>
       </c>
       <c r="B319" t="s">
@@ -11366,7 +11365,7 @@
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A320" s="5">
+      <c r="A320" s="4">
         <v>44013</v>
       </c>
       <c r="B320" t="s">
@@ -11392,7 +11391,7 @@
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A321" s="5">
+      <c r="A321" s="4">
         <v>44013</v>
       </c>
       <c r="B321" t="s">
@@ -11418,7 +11417,7 @@
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A322" s="5">
+      <c r="A322" s="4">
         <v>44013</v>
       </c>
       <c r="B322" t="s">
@@ -11444,7 +11443,7 @@
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A323" s="5">
+      <c r="A323" s="4">
         <v>44013</v>
       </c>
       <c r="B323" t="s">
@@ -11470,7 +11469,7 @@
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A324" s="5">
+      <c r="A324" s="4">
         <v>44013</v>
       </c>
       <c r="B324" t="s">
@@ -11496,7 +11495,7 @@
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A325" s="5">
+      <c r="A325" s="4">
         <v>44013</v>
       </c>
       <c r="B325" t="s">
@@ -11522,7 +11521,7 @@
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A326" s="5">
+      <c r="A326" s="4">
         <v>44013</v>
       </c>
       <c r="B326" t="s">
@@ -11548,7 +11547,7 @@
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A327" s="5">
+      <c r="A327" s="4">
         <v>44013</v>
       </c>
       <c r="B327" t="s">
@@ -11574,7 +11573,7 @@
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A328" s="5">
+      <c r="A328" s="4">
         <v>44013</v>
       </c>
       <c r="B328" t="s">
@@ -11600,7 +11599,7 @@
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A329" s="5">
+      <c r="A329" s="4">
         <v>44013</v>
       </c>
       <c r="B329" t="s">
@@ -11626,7 +11625,7 @@
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A330" s="5">
+      <c r="A330" s="4">
         <v>44013</v>
       </c>
       <c r="B330" t="s">
@@ -11652,7 +11651,7 @@
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A331" s="5">
+      <c r="A331" s="4">
         <v>44013</v>
       </c>
       <c r="B331" t="s">
@@ -11678,7 +11677,7 @@
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A332" s="5">
+      <c r="A332" s="4">
         <v>44013</v>
       </c>
       <c r="B332" t="s">
@@ -11704,7 +11703,7 @@
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A333" s="5">
+      <c r="A333" s="4">
         <v>44013</v>
       </c>
       <c r="B333" t="s">
@@ -11730,7 +11729,7 @@
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A334" s="5">
+      <c r="A334" s="4">
         <v>44013</v>
       </c>
       <c r="B334" t="s">
@@ -11756,7 +11755,7 @@
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A335" s="5">
+      <c r="A335" s="4">
         <v>44013</v>
       </c>
       <c r="B335" t="s">
@@ -11782,7 +11781,7 @@
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A336" s="5">
+      <c r="A336" s="4">
         <v>44013</v>
       </c>
       <c r="B336" t="s">
@@ -11808,7 +11807,7 @@
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A337" s="5">
+      <c r="A337" s="4">
         <v>44013</v>
       </c>
       <c r="B337" t="s">
@@ -11834,7 +11833,7 @@
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A338" s="5">
+      <c r="A338" s="4">
         <v>44013</v>
       </c>
       <c r="B338" t="s">
@@ -11860,7 +11859,7 @@
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A339" s="5">
+      <c r="A339" s="4">
         <v>44013</v>
       </c>
       <c r="B339" t="s">
@@ -11886,7 +11885,7 @@
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A340" s="5">
+      <c r="A340" s="4">
         <v>44013</v>
       </c>
       <c r="B340" t="s">
@@ -11912,7 +11911,7 @@
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A341" s="5">
+      <c r="A341" s="4">
         <v>44013</v>
       </c>
       <c r="B341" t="s">
@@ -11938,7 +11937,7 @@
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A342" s="5">
+      <c r="A342" s="4">
         <v>44013</v>
       </c>
       <c r="B342" t="s">
@@ -11964,7 +11963,7 @@
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A343" s="5">
+      <c r="A343" s="4">
         <v>44013</v>
       </c>
       <c r="B343" t="s">
@@ -11990,7 +11989,7 @@
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A344" s="5">
+      <c r="A344" s="4">
         <v>44013</v>
       </c>
       <c r="B344" t="s">
@@ -12016,7 +12015,7 @@
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A345" s="5">
+      <c r="A345" s="4">
         <v>44013</v>
       </c>
       <c r="B345" t="s">
@@ -12042,7 +12041,7 @@
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A346" s="5">
+      <c r="A346" s="4">
         <v>44013</v>
       </c>
       <c r="B346" t="s">
@@ -12068,7 +12067,7 @@
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A347" s="5">
+      <c r="A347" s="4">
         <v>44013</v>
       </c>
       <c r="B347" t="s">
@@ -12094,7 +12093,7 @@
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A348" s="5">
+      <c r="A348" s="4">
         <v>44013</v>
       </c>
       <c r="B348" t="s">
@@ -12120,7 +12119,7 @@
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A349" s="5">
+      <c r="A349" s="4">
         <v>44013</v>
       </c>
       <c r="B349" t="s">
@@ -12146,7 +12145,7 @@
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A350" s="5">
+      <c r="A350" s="4">
         <v>44013</v>
       </c>
       <c r="B350" t="s">
@@ -12172,7 +12171,7 @@
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A351" s="5">
+      <c r="A351" s="4">
         <v>44013</v>
       </c>
       <c r="B351" t="s">
@@ -12198,7 +12197,7 @@
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A352" s="5">
+      <c r="A352" s="4">
         <v>44013</v>
       </c>
       <c r="B352" t="s">
@@ -12224,7 +12223,7 @@
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A353" s="5">
+      <c r="A353" s="4">
         <v>44013</v>
       </c>
       <c r="B353" t="s">
@@ -12250,7 +12249,7 @@
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A354" s="5">
+      <c r="A354" s="4">
         <v>44013</v>
       </c>
       <c r="B354" t="s">
@@ -12276,7 +12275,7 @@
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A355" s="5">
+      <c r="A355" s="4">
         <v>44013</v>
       </c>
       <c r="B355" t="s">
@@ -12302,7 +12301,7 @@
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A356" s="5">
+      <c r="A356" s="4">
         <v>44013</v>
       </c>
       <c r="B356" t="s">
@@ -12328,7 +12327,7 @@
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A357" s="5">
+      <c r="A357" s="4">
         <v>44013</v>
       </c>
       <c r="B357" t="s">
@@ -12354,7 +12353,7 @@
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A358" s="5">
+      <c r="A358" s="4">
         <v>44013</v>
       </c>
       <c r="B358" t="s">
@@ -12380,7 +12379,7 @@
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A359" s="5">
+      <c r="A359" s="4">
         <v>44013</v>
       </c>
       <c r="B359" t="s">
@@ -12406,7 +12405,7 @@
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A360" s="5">
+      <c r="A360" s="4">
         <v>44013</v>
       </c>
       <c r="B360" t="s">
@@ -12432,7 +12431,7 @@
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A361" s="5">
+      <c r="A361" s="4">
         <v>44013</v>
       </c>
       <c r="B361" t="s">
@@ -12458,7 +12457,7 @@
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A362" s="5">
+      <c r="A362" s="4">
         <v>44013</v>
       </c>
       <c r="B362" t="s">
@@ -12484,7 +12483,7 @@
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A363" s="5">
+      <c r="A363" s="4">
         <v>44013</v>
       </c>
       <c r="B363" t="s">
@@ -12510,7 +12509,7 @@
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A364" s="5">
+      <c r="A364" s="4">
         <v>44013</v>
       </c>
       <c r="B364" t="s">
@@ -12536,7 +12535,7 @@
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A365" s="5">
+      <c r="A365" s="4">
         <v>44013</v>
       </c>
       <c r="B365" t="s">
@@ -12562,7 +12561,7 @@
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A366" s="5">
+      <c r="A366" s="4">
         <v>44013</v>
       </c>
       <c r="B366" t="s">
@@ -12588,7 +12587,7 @@
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A367" s="5">
+      <c r="A367" s="4">
         <v>44013</v>
       </c>
       <c r="B367" t="s">
@@ -12614,7 +12613,7 @@
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A368" s="5">
+      <c r="A368" s="4">
         <v>44013</v>
       </c>
       <c r="B368" t="s">
@@ -12640,7 +12639,7 @@
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A369" s="5">
+      <c r="A369" s="4">
         <v>44013</v>
       </c>
       <c r="B369" t="s">
@@ -12666,7 +12665,7 @@
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A370" s="5">
+      <c r="A370" s="4">
         <v>44013</v>
       </c>
       <c r="B370" t="s">
@@ -12692,7 +12691,7 @@
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A371" s="5">
+      <c r="A371" s="4">
         <v>44013</v>
       </c>
       <c r="B371" t="s">
@@ -12718,7 +12717,7 @@
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A372" s="5">
+      <c r="A372" s="4">
         <v>44013</v>
       </c>
       <c r="B372" t="s">
@@ -12744,7 +12743,7 @@
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A373" s="5">
+      <c r="A373" s="4">
         <v>44013</v>
       </c>
       <c r="B373" t="s">
@@ -12770,7 +12769,7 @@
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A374" s="5">
+      <c r="A374" s="4">
         <v>44013</v>
       </c>
       <c r="B374" t="s">
@@ -12796,7 +12795,7 @@
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A375" s="5">
+      <c r="A375" s="4">
         <v>44013</v>
       </c>
       <c r="B375" t="s">
@@ -12822,7 +12821,7 @@
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A376" s="5">
+      <c r="A376" s="4">
         <v>44013</v>
       </c>
       <c r="B376" t="s">
@@ -12848,7 +12847,7 @@
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A377" s="5">
+      <c r="A377" s="4">
         <v>44013</v>
       </c>
       <c r="B377" t="s">
@@ -12874,7 +12873,7 @@
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A378" s="5">
+      <c r="A378" s="4">
         <v>44013</v>
       </c>
       <c r="B378" t="s">
@@ -12900,7 +12899,7 @@
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A379" s="5">
+      <c r="A379" s="4">
         <v>44013</v>
       </c>
       <c r="B379" t="s">
@@ -12926,7 +12925,7 @@
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A380" s="5">
+      <c r="A380" s="4">
         <v>44013</v>
       </c>
       <c r="B380" t="s">
@@ -12952,7 +12951,7 @@
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A381" s="5">
+      <c r="A381" s="4">
         <v>44013</v>
       </c>
       <c r="B381" t="s">
@@ -12978,7 +12977,7 @@
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A382" s="5">
+      <c r="A382" s="4">
         <v>44013</v>
       </c>
       <c r="B382" t="s">
@@ -13004,7 +13003,7 @@
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A383" s="5">
+      <c r="A383" s="4">
         <v>44013</v>
       </c>
       <c r="B383" t="s">
@@ -13030,7 +13029,7 @@
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A384" s="5">
+      <c r="A384" s="4">
         <v>44013</v>
       </c>
       <c r="B384" t="s">
@@ -13056,7 +13055,7 @@
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A385" s="5">
+      <c r="A385" s="4">
         <v>44013</v>
       </c>
       <c r="B385" t="s">
@@ -13082,7 +13081,7 @@
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A386" s="5">
+      <c r="A386" s="4">
         <v>44013</v>
       </c>
       <c r="B386" t="s">
@@ -13108,7 +13107,7 @@
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A387" s="5">
+      <c r="A387" s="4">
         <v>44013</v>
       </c>
       <c r="B387" t="s">
@@ -13134,7 +13133,7 @@
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A388" s="5">
+      <c r="A388" s="4">
         <v>44013</v>
       </c>
       <c r="B388" t="s">
@@ -13160,7 +13159,7 @@
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A389" s="5">
+      <c r="A389" s="4">
         <v>44013</v>
       </c>
       <c r="B389" t="s">
@@ -13186,7 +13185,7 @@
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A390" s="5">
+      <c r="A390" s="4">
         <v>44013</v>
       </c>
       <c r="B390" t="s">
@@ -13212,7 +13211,7 @@
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A391" s="5">
+      <c r="A391" s="4">
         <v>44013</v>
       </c>
       <c r="B391" t="s">
@@ -13238,7 +13237,7 @@
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A392" s="5">
+      <c r="A392" s="4">
         <v>44013</v>
       </c>
       <c r="B392" t="s">
@@ -13264,7 +13263,7 @@
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A393" s="5">
+      <c r="A393" s="4">
         <v>44013</v>
       </c>
       <c r="B393" t="s">
@@ -13290,7 +13289,7 @@
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A394" s="5">
+      <c r="A394" s="4">
         <v>44013</v>
       </c>
       <c r="B394" t="s">
@@ -13316,7 +13315,7 @@
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A395" s="5">
+      <c r="A395" s="4">
         <v>44013</v>
       </c>
       <c r="B395" t="s">
@@ -13342,7 +13341,7 @@
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A396" s="5">
+      <c r="A396" s="4">
         <v>44013</v>
       </c>
       <c r="B396" t="s">
@@ -13368,7 +13367,7 @@
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A397" s="5">
+      <c r="A397" s="4">
         <v>44013</v>
       </c>
       <c r="B397" t="s">
@@ -13394,7 +13393,7 @@
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A398" s="5">
+      <c r="A398" s="4">
         <v>44013</v>
       </c>
       <c r="B398" t="s">
@@ -13420,7 +13419,7 @@
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A399" s="5">
+      <c r="A399" s="4">
         <v>44013</v>
       </c>
       <c r="B399" t="s">
@@ -13446,7 +13445,7 @@
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A400" s="5">
+      <c r="A400" s="4">
         <v>44013</v>
       </c>
       <c r="B400" t="s">
@@ -13472,7 +13471,7 @@
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A401" s="5">
+      <c r="A401" s="4">
         <v>44013</v>
       </c>
       <c r="B401" t="s">
@@ -13498,7 +13497,7 @@
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A402" s="5">
+      <c r="A402" s="4">
         <v>44013</v>
       </c>
       <c r="B402" t="s">
@@ -13524,7 +13523,7 @@
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A403" s="5">
+      <c r="A403" s="4">
         <v>44013</v>
       </c>
       <c r="B403" t="s">
@@ -13550,7 +13549,7 @@
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A404" s="5">
+      <c r="A404" s="4">
         <v>44013</v>
       </c>
       <c r="B404" t="s">
@@ -13576,7 +13575,7 @@
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A405" s="5">
+      <c r="A405" s="4">
         <v>44013</v>
       </c>
       <c r="B405" t="s">
@@ -13602,7 +13601,7 @@
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A406" s="5">
+      <c r="A406" s="4">
         <v>44013</v>
       </c>
       <c r="B406" t="s">
@@ -13628,7 +13627,7 @@
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A407" s="5">
+      <c r="A407" s="4">
         <v>44013</v>
       </c>
       <c r="B407" t="s">
@@ -13654,7 +13653,7 @@
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A408" s="5">
+      <c r="A408" s="4">
         <v>44013</v>
       </c>
       <c r="B408" t="s">
@@ -13680,7 +13679,7 @@
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A409" s="5">
+      <c r="A409" s="4">
         <v>44013</v>
       </c>
       <c r="B409" t="s">
@@ -13706,7 +13705,7 @@
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A410" s="5">
+      <c r="A410" s="4">
         <v>44013</v>
       </c>
       <c r="B410" t="s">
@@ -13732,7 +13731,7 @@
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A411" s="5">
+      <c r="A411" s="4">
         <v>44013</v>
       </c>
       <c r="B411" t="s">
@@ -13758,7 +13757,7 @@
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A412" s="5">
+      <c r="A412" s="4">
         <v>44013</v>
       </c>
       <c r="B412" t="s">
@@ -13784,7 +13783,7 @@
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A413" s="5">
+      <c r="A413" s="4">
         <v>44013</v>
       </c>
       <c r="B413" t="s">
@@ -13810,7 +13809,7 @@
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A414" s="5">
+      <c r="A414" s="4">
         <v>44013</v>
       </c>
       <c r="B414" t="s">
@@ -13836,7 +13835,7 @@
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A415" s="5">
+      <c r="A415" s="4">
         <v>44013</v>
       </c>
       <c r="B415" t="s">
@@ -13862,7 +13861,7 @@
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A416" s="5">
+      <c r="A416" s="4">
         <v>44013</v>
       </c>
       <c r="B416" t="s">
@@ -13888,7 +13887,7 @@
       </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A417" s="5">
+      <c r="A417" s="4">
         <v>44013</v>
       </c>
       <c r="B417" t="s">
@@ -13914,7 +13913,7 @@
       </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A418" s="5">
+      <c r="A418" s="4">
         <v>44013</v>
       </c>
       <c r="B418" t="s">
@@ -13940,7 +13939,7 @@
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A419" s="5">
+      <c r="A419" s="4">
         <v>44013</v>
       </c>
       <c r="B419" t="s">
@@ -13966,7 +13965,7 @@
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A420" s="5">
+      <c r="A420" s="4">
         <v>44013</v>
       </c>
       <c r="B420" t="s">
@@ -13992,7 +13991,7 @@
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A421" s="5">
+      <c r="A421" s="4">
         <v>44013</v>
       </c>
       <c r="B421" t="s">
@@ -14018,7 +14017,7 @@
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A422" s="5">
+      <c r="A422" s="4">
         <v>44013</v>
       </c>
       <c r="B422" t="s">
@@ -14044,7 +14043,7 @@
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A423" s="5">
+      <c r="A423" s="4">
         <v>44013</v>
       </c>
       <c r="B423" t="s">
@@ -14070,7 +14069,7 @@
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A424" s="5">
+      <c r="A424" s="4">
         <v>44013</v>
       </c>
       <c r="B424" t="s">
@@ -14096,7 +14095,7 @@
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A425" s="5">
+      <c r="A425" s="4">
         <v>44013</v>
       </c>
       <c r="B425" t="s">
@@ -14122,7 +14121,7 @@
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A426" s="5">
+      <c r="A426" s="4">
         <v>44013</v>
       </c>
       <c r="B426" t="s">
@@ -14148,7 +14147,7 @@
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A427" s="5">
+      <c r="A427" s="4">
         <v>44013</v>
       </c>
       <c r="B427" t="s">
@@ -14174,7 +14173,7 @@
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A428" s="5">
+      <c r="A428" s="4">
         <v>44013</v>
       </c>
       <c r="B428" t="s">
@@ -14200,7 +14199,7 @@
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A429" s="5">
+      <c r="A429" s="4">
         <v>44013</v>
       </c>
       <c r="B429" t="s">
@@ -14226,7 +14225,7 @@
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A430" s="5">
+      <c r="A430" s="4">
         <v>44013</v>
       </c>
       <c r="B430" t="s">
@@ -14252,7 +14251,7 @@
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A431" s="5">
+      <c r="A431" s="4">
         <v>44013</v>
       </c>
       <c r="B431" t="s">
@@ -14278,7 +14277,7 @@
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A432" s="5">
+      <c r="A432" s="4">
         <v>44013</v>
       </c>
       <c r="B432" t="s">
@@ -14304,7 +14303,7 @@
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A433" s="5">
+      <c r="A433" s="4">
         <v>44013</v>
       </c>
       <c r="B433" t="s">
@@ -14330,7 +14329,7 @@
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A434" s="5">
+      <c r="A434" s="4">
         <v>44013</v>
       </c>
       <c r="B434" t="s">
@@ -14356,7 +14355,7 @@
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A435" s="5">
+      <c r="A435" s="4">
         <v>44013</v>
       </c>
       <c r="B435" t="s">
@@ -14382,7 +14381,7 @@
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A436" s="5">
+      <c r="A436" s="4">
         <v>44013</v>
       </c>
       <c r="B436" t="s">
@@ -14408,7 +14407,7 @@
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A437" s="5">
+      <c r="A437" s="4">
         <v>44013</v>
       </c>
       <c r="B437" t="s">
@@ -14434,7 +14433,7 @@
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A438" s="5">
+      <c r="A438" s="4">
         <v>44013</v>
       </c>
       <c r="B438" t="s">
@@ -14460,7 +14459,7 @@
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A439" s="5">
+      <c r="A439" s="4">
         <v>44013</v>
       </c>
       <c r="B439" t="s">
@@ -14486,7 +14485,7 @@
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A440" s="5">
+      <c r="A440" s="4">
         <v>44013</v>
       </c>
       <c r="B440" t="s">
@@ -14512,7 +14511,7 @@
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A441" s="5">
+      <c r="A441" s="4">
         <v>44013</v>
       </c>
       <c r="B441" t="s">
@@ -14538,7 +14537,7 @@
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A442" s="5">
+      <c r="A442" s="4">
         <v>44013</v>
       </c>
       <c r="B442" t="s">
@@ -14564,7 +14563,7 @@
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A443" s="5">
+      <c r="A443" s="4">
         <v>44013</v>
       </c>
       <c r="B443" t="s">
@@ -14590,7 +14589,7 @@
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A444" s="5">
+      <c r="A444" s="4">
         <v>44013</v>
       </c>
       <c r="B444" t="s">
@@ -14616,7 +14615,7 @@
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A445" s="5">
+      <c r="A445" s="4">
         <v>44013</v>
       </c>
       <c r="B445" t="s">
@@ -14642,7 +14641,7 @@
       </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A446" s="5">
+      <c r="A446" s="4">
         <v>44013</v>
       </c>
       <c r="B446" t="s">
@@ -14668,7 +14667,7 @@
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A447" s="5">
+      <c r="A447" s="4">
         <v>44013</v>
       </c>
       <c r="B447" t="s">
@@ -14694,7 +14693,7 @@
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A448" s="5">
+      <c r="A448" s="4">
         <v>44013</v>
       </c>
       <c r="B448" t="s">
@@ -14720,7 +14719,7 @@
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A449" s="5">
+      <c r="A449" s="4">
         <v>44013</v>
       </c>
       <c r="B449" t="s">
@@ -14746,7 +14745,7 @@
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A450" s="5">
+      <c r="A450" s="4">
         <v>44013</v>
       </c>
       <c r="B450" t="s">
@@ -14772,7 +14771,7 @@
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A451" s="5">
+      <c r="A451" s="4">
         <v>44013</v>
       </c>
       <c r="B451" t="s">
@@ -14798,7 +14797,7 @@
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A452" s="5">
+      <c r="A452" s="4">
         <v>44013</v>
       </c>
       <c r="B452" t="s">
@@ -14824,7 +14823,7 @@
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A453" s="5">
+      <c r="A453" s="4">
         <v>44013</v>
       </c>
       <c r="B453" t="s">
@@ -14850,7 +14849,7 @@
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A454" s="5">
+      <c r="A454" s="4">
         <v>44013</v>
       </c>
       <c r="B454" t="s">
@@ -14876,7 +14875,7 @@
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A455" s="5">
+      <c r="A455" s="4">
         <v>44013</v>
       </c>
       <c r="B455" t="s">
@@ -14902,7 +14901,7 @@
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A456" s="5">
+      <c r="A456" s="4">
         <v>44013</v>
       </c>
       <c r="B456" t="s">
@@ -14928,7 +14927,7 @@
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A457" s="5">
+      <c r="A457" s="4">
         <v>44013</v>
       </c>
       <c r="B457" t="s">
@@ -14954,7 +14953,7 @@
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A458" s="5">
+      <c r="A458" s="4">
         <v>44013</v>
       </c>
       <c r="B458" t="s">
@@ -14980,7 +14979,7 @@
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A459" s="5">
+      <c r="A459" s="4">
         <v>44013</v>
       </c>
       <c r="B459" t="s">
@@ -15006,7 +15005,7 @@
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A460" s="5">
+      <c r="A460" s="4">
         <v>44013</v>
       </c>
       <c r="B460" t="s">
@@ -15032,7 +15031,7 @@
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A461" s="5">
+      <c r="A461" s="4">
         <v>44013</v>
       </c>
       <c r="B461" t="s">
@@ -15058,7 +15057,7 @@
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A462" s="5">
+      <c r="A462" s="4">
         <v>44013</v>
       </c>
       <c r="B462" t="s">
@@ -15084,7 +15083,7 @@
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A463" s="5">
+      <c r="A463" s="4">
         <v>44013</v>
       </c>
       <c r="B463" t="s">
@@ -15110,7 +15109,7 @@
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A464" s="5">
+      <c r="A464" s="4">
         <v>44013</v>
       </c>
       <c r="B464" t="s">
@@ -15136,7 +15135,7 @@
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A465" s="5">
+      <c r="A465" s="4">
         <v>44013</v>
       </c>
       <c r="B465" t="s">
@@ -15162,7 +15161,7 @@
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A466" s="5">
+      <c r="A466" s="4">
         <v>44013</v>
       </c>
       <c r="B466" t="s">
@@ -15188,7 +15187,7 @@
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A467" s="5">
+      <c r="A467" s="4">
         <v>44013</v>
       </c>
       <c r="B467" t="s">
@@ -15214,7 +15213,7 @@
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A468" s="5">
+      <c r="A468" s="4">
         <v>44013</v>
       </c>
       <c r="B468" t="s">
@@ -15240,7 +15239,7 @@
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A469" s="5">
+      <c r="A469" s="4">
         <v>44013</v>
       </c>
       <c r="B469" t="s">
@@ -15266,7 +15265,7 @@
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A470" s="5">
+      <c r="A470" s="4">
         <v>44013</v>
       </c>
       <c r="B470" t="s">
@@ -15292,7 +15291,7 @@
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A471" s="5">
+      <c r="A471" s="4">
         <v>44013</v>
       </c>
       <c r="B471" t="s">
@@ -15318,7 +15317,7 @@
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A472" s="5">
+      <c r="A472" s="4">
         <v>44013</v>
       </c>
       <c r="B472" t="s">
@@ -15344,7 +15343,7 @@
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A473" s="5">
+      <c r="A473" s="4">
         <v>44013</v>
       </c>
       <c r="B473" t="s">
@@ -15370,7 +15369,7 @@
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A474" s="5">
+      <c r="A474" s="4">
         <v>44013</v>
       </c>
       <c r="B474" t="s">
@@ -15396,7 +15395,7 @@
       </c>
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A475" s="5">
+      <c r="A475" s="4">
         <v>44013</v>
       </c>
       <c r="B475" t="s">
@@ -15422,7 +15421,7 @@
       </c>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A476" s="5">
+      <c r="A476" s="4">
         <v>44013</v>
       </c>
       <c r="B476" t="s">
@@ -15448,7 +15447,7 @@
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A477" s="5">
+      <c r="A477" s="4">
         <v>44013</v>
       </c>
       <c r="B477" t="s">
@@ -15474,7 +15473,7 @@
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A478" s="5">
+      <c r="A478" s="4">
         <v>44013</v>
       </c>
       <c r="B478" t="s">
@@ -15500,7 +15499,7 @@
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A479" s="5">
+      <c r="A479" s="4">
         <v>44013</v>
       </c>
       <c r="B479" t="s">
@@ -15526,7 +15525,7 @@
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A480" s="5">
+      <c r="A480" s="4">
         <v>44013</v>
       </c>
       <c r="B480" t="s">
@@ -15552,7 +15551,7 @@
       </c>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A481" s="5">
+      <c r="A481" s="4">
         <v>44013</v>
       </c>
       <c r="B481" t="s">
@@ -15578,7 +15577,7 @@
       </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A482" s="5">
+      <c r="A482" s="4">
         <v>44013</v>
       </c>
       <c r="B482" t="s">
@@ -15604,7 +15603,7 @@
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A483" s="5">
+      <c r="A483" s="4">
         <v>44013</v>
       </c>
       <c r="B483" t="s">
@@ -15630,7 +15629,7 @@
       </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A484" s="5">
+      <c r="A484" s="4">
         <v>44013</v>
       </c>
       <c r="B484" t="s">
@@ -15656,7 +15655,7 @@
       </c>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A485" s="5">
+      <c r="A485" s="4">
         <v>44013</v>
       </c>
       <c r="B485" t="s">
@@ -15682,7 +15681,7 @@
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A486" s="5">
+      <c r="A486" s="4">
         <v>44013</v>
       </c>
       <c r="B486" t="s">
@@ -15708,7 +15707,7 @@
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A487" s="5">
+      <c r="A487" s="4">
         <v>44013</v>
       </c>
       <c r="B487" t="s">
@@ -15734,7 +15733,7 @@
       </c>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A488" s="5">
+      <c r="A488" s="4">
         <v>44013</v>
       </c>
       <c r="B488" t="s">
@@ -15760,7 +15759,7 @@
       </c>
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A489" s="5">
+      <c r="A489" s="4">
         <v>44013</v>
       </c>
       <c r="B489" t="s">
@@ -15786,7 +15785,7 @@
       </c>
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A490" s="5">
+      <c r="A490" s="4">
         <v>44013</v>
       </c>
       <c r="B490" t="s">
@@ -15812,7 +15811,7 @@
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A491" s="5">
+      <c r="A491" s="4">
         <v>44013</v>
       </c>
       <c r="B491" t="s">
@@ -15838,7 +15837,7 @@
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A492" s="5">
+      <c r="A492" s="4">
         <v>44013</v>
       </c>
       <c r="B492" t="s">
@@ -15864,7 +15863,7 @@
       </c>
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A493" s="5">
+      <c r="A493" s="4">
         <v>44013</v>
       </c>
       <c r="B493" t="s">
@@ -15890,7 +15889,7 @@
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A494" s="5">
+      <c r="A494" s="4">
         <v>44013</v>
       </c>
       <c r="B494" t="s">
@@ -15916,7 +15915,7 @@
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A495" s="5">
+      <c r="A495" s="4">
         <v>44013</v>
       </c>
       <c r="B495" t="s">
@@ -15942,7 +15941,7 @@
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A496" s="5">
+      <c r="A496" s="4">
         <v>44013</v>
       </c>
       <c r="B496" t="s">
@@ -15968,7 +15967,7 @@
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A497" s="5">
+      <c r="A497" s="4">
         <v>44013</v>
       </c>
       <c r="B497" t="s">
@@ -15994,7 +15993,7 @@
       </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A498" s="5">
+      <c r="A498" s="4">
         <v>44013</v>
       </c>
       <c r="B498" t="s">
@@ -16020,7 +16019,7 @@
       </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A499" s="5">
+      <c r="A499" s="4">
         <v>44013</v>
       </c>
       <c r="B499" t="s">
@@ -16046,7 +16045,7 @@
       </c>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A500" s="5">
+      <c r="A500" s="4">
         <v>44013</v>
       </c>
       <c r="B500" t="s">
@@ -16072,7 +16071,7 @@
       </c>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A501" s="5">
+      <c r="A501" s="4">
         <v>44013</v>
       </c>
       <c r="B501" t="s">
@@ -16098,7 +16097,7 @@
       </c>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A502" s="5">
+      <c r="A502" s="4">
         <v>44013</v>
       </c>
       <c r="B502" t="s">
@@ -16124,7 +16123,7 @@
       </c>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A503" s="5">
+      <c r="A503" s="4">
         <v>44013</v>
       </c>
       <c r="B503" t="s">
@@ -16150,7 +16149,7 @@
       </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A504" s="5">
+      <c r="A504" s="4">
         <v>44013</v>
       </c>
       <c r="B504" t="s">
@@ -16176,7 +16175,7 @@
       </c>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A505" s="5">
+      <c r="A505" s="4">
         <v>44013</v>
       </c>
       <c r="B505" t="s">
@@ -16202,7 +16201,7 @@
       </c>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A506" s="5">
+      <c r="A506" s="4">
         <v>44013</v>
       </c>
       <c r="B506" t="s">
@@ -16228,7 +16227,7 @@
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A507" s="5">
+      <c r="A507" s="4">
         <v>44013</v>
       </c>
       <c r="B507" t="s">
@@ -16254,7 +16253,7 @@
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A508" s="5">
+      <c r="A508" s="4">
         <v>44013</v>
       </c>
       <c r="B508" t="s">
@@ -16280,7 +16279,7 @@
       </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A509" s="5">
+      <c r="A509" s="4">
         <v>44013</v>
       </c>
       <c r="B509" t="s">
@@ -16306,7 +16305,7 @@
       </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A510" s="5">
+      <c r="A510" s="4">
         <v>44013</v>
       </c>
       <c r="B510" t="s">
@@ -16332,7 +16331,7 @@
       </c>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A511" s="5">
+      <c r="A511" s="4">
         <v>44013</v>
       </c>
       <c r="B511" t="s">
@@ -16358,7 +16357,7 @@
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A512" s="5">
+      <c r="A512" s="4">
         <v>44013</v>
       </c>
       <c r="B512" t="s">
@@ -16384,7 +16383,7 @@
       </c>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A513" s="5">
+      <c r="A513" s="4">
         <v>44013</v>
       </c>
       <c r="B513" t="s">
@@ -16410,7 +16409,7 @@
       </c>
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A514" s="5">
+      <c r="A514" s="4">
         <v>44013</v>
       </c>
       <c r="B514" t="s">
@@ -16436,7 +16435,7 @@
       </c>
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A515" s="5">
+      <c r="A515" s="4">
         <v>44013</v>
       </c>
       <c r="B515" t="s">
@@ -16462,7 +16461,7 @@
       </c>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A516" s="5">
+      <c r="A516" s="4">
         <v>44013</v>
       </c>
       <c r="B516" t="s">
@@ -16488,7 +16487,7 @@
       </c>
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A517" s="5">
+      <c r="A517" s="4">
         <v>44013</v>
       </c>
       <c r="B517" t="s">
@@ -16514,7 +16513,7 @@
       </c>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A518" s="5">
+      <c r="A518" s="4">
         <v>44013</v>
       </c>
       <c r="B518" t="s">
@@ -16540,7 +16539,7 @@
       </c>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A519" s="5">
+      <c r="A519" s="4">
         <v>44013</v>
       </c>
       <c r="B519" t="s">
@@ -16566,7 +16565,7 @@
       </c>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A520" s="5">
+      <c r="A520" s="4">
         <v>44013</v>
       </c>
       <c r="B520" t="s">
@@ -16592,7 +16591,7 @@
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A521" s="5">
+      <c r="A521" s="4">
         <v>44013</v>
       </c>
       <c r="B521" t="s">
@@ -16618,7 +16617,7 @@
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A522" s="5">
+      <c r="A522" s="4">
         <v>44013</v>
       </c>
       <c r="B522" t="s">
@@ -16644,7 +16643,7 @@
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A523" s="5">
+      <c r="A523" s="4">
         <v>44013</v>
       </c>
       <c r="B523" t="s">
@@ -16670,7 +16669,7 @@
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A524" s="5">
+      <c r="A524" s="4">
         <v>44013</v>
       </c>
       <c r="B524" t="s">
@@ -16696,7 +16695,7 @@
       </c>
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A525" s="5">
+      <c r="A525" s="4">
         <v>44013</v>
       </c>
       <c r="B525" t="s">
@@ -16722,7 +16721,7 @@
       </c>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A526" s="5">
+      <c r="A526" s="4">
         <v>44013</v>
       </c>
       <c r="B526" t="s">
@@ -16748,7 +16747,7 @@
       </c>
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A527" s="5">
+      <c r="A527" s="4">
         <v>44013</v>
       </c>
       <c r="B527" t="s">
@@ -16774,7 +16773,7 @@
       </c>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A528" s="5">
+      <c r="A528" s="4">
         <v>44013</v>
       </c>
       <c r="B528" t="s">
@@ -16800,7 +16799,7 @@
       </c>
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A529" s="5">
+      <c r="A529" s="4">
         <v>44013</v>
       </c>
       <c r="B529" t="s">
@@ -16826,7 +16825,7 @@
       </c>
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A530" s="5">
+      <c r="A530" s="4">
         <v>44013</v>
       </c>
       <c r="B530" t="s">
@@ -16852,7 +16851,7 @@
       </c>
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A531" s="5">
+      <c r="A531" s="4">
         <v>44013</v>
       </c>
       <c r="B531" t="s">
@@ -16878,7 +16877,7 @@
       </c>
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A532" s="5">
+      <c r="A532" s="4">
         <v>44013</v>
       </c>
       <c r="B532" t="s">
@@ -16904,7 +16903,7 @@
       </c>
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A533" s="5">
+      <c r="A533" s="4">
         <v>44013</v>
       </c>
       <c r="B533" t="s">
@@ -16930,7 +16929,7 @@
       </c>
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A534" s="5">
+      <c r="A534" s="4">
         <v>44013</v>
       </c>
       <c r="B534" t="s">
@@ -16956,7 +16955,7 @@
       </c>
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A535" s="5">
+      <c r="A535" s="4">
         <v>44013</v>
       </c>
       <c r="B535" t="s">
@@ -16982,7 +16981,7 @@
       </c>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A536" s="5">
+      <c r="A536" s="4">
         <v>44013</v>
       </c>
       <c r="B536" t="s">
@@ -17008,7 +17007,7 @@
       </c>
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A537" s="5">
+      <c r="A537" s="4">
         <v>44013</v>
       </c>
       <c r="B537" t="s">
@@ -17034,7 +17033,7 @@
       </c>
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A538" s="5">
+      <c r="A538" s="4">
         <v>44013</v>
       </c>
       <c r="B538" t="s">
@@ -17060,7 +17059,7 @@
       </c>
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A539" s="5">
+      <c r="A539" s="4">
         <v>44013</v>
       </c>
       <c r="B539" t="s">
@@ -17086,7 +17085,7 @@
       </c>
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A540" s="5">
+      <c r="A540" s="4">
         <v>44013</v>
       </c>
       <c r="B540" t="s">
@@ -17112,7 +17111,7 @@
       </c>
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A541" s="5">
+      <c r="A541" s="4">
         <v>44013</v>
       </c>
       <c r="B541" t="s">
@@ -17138,7 +17137,7 @@
       </c>
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A542" s="5">
+      <c r="A542" s="4">
         <v>44013</v>
       </c>
       <c r="B542" t="s">
@@ -17164,7 +17163,7 @@
       </c>
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A543" s="5">
+      <c r="A543" s="4">
         <v>44013</v>
       </c>
       <c r="B543" t="s">
@@ -17190,7 +17189,7 @@
       </c>
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A544" s="5">
+      <c r="A544" s="4">
         <v>44013</v>
       </c>
       <c r="B544" t="s">
@@ -17216,7 +17215,7 @@
       </c>
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A545" s="5">
+      <c r="A545" s="4">
         <v>44013</v>
       </c>
       <c r="B545" t="s">
@@ -17242,7 +17241,7 @@
       </c>
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A546" s="5">
+      <c r="A546" s="4">
         <v>44013</v>
       </c>
       <c r="B546" t="s">
@@ -17268,7 +17267,7 @@
       </c>
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A547" s="5">
+      <c r="A547" s="4">
         <v>44013</v>
       </c>
       <c r="B547" t="s">
@@ -17294,7 +17293,7 @@
       </c>
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A548" s="5">
+      <c r="A548" s="4">
         <v>44013</v>
       </c>
       <c r="B548" t="s">
@@ -17320,7 +17319,7 @@
       </c>
     </row>
     <row r="549" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A549" s="5">
+      <c r="A549" s="4">
         <v>44013</v>
       </c>
       <c r="B549" t="s">
@@ -17346,7 +17345,7 @@
       </c>
     </row>
     <row r="550" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A550" s="5">
+      <c r="A550" s="4">
         <v>44013</v>
       </c>
       <c r="B550" t="s">
@@ -17372,7 +17371,7 @@
       </c>
     </row>
     <row r="551" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A551" s="5">
+      <c r="A551" s="4">
         <v>44013</v>
       </c>
       <c r="B551" t="s">
@@ -17398,7 +17397,7 @@
       </c>
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A552" s="5">
+      <c r="A552" s="4">
         <v>44013</v>
       </c>
       <c r="B552" t="s">
@@ -17424,7 +17423,7 @@
       </c>
     </row>
     <row r="553" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A553" s="5">
+      <c r="A553" s="4">
         <v>44013</v>
       </c>
       <c r="B553" t="s">
@@ -17450,7 +17449,7 @@
       </c>
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A554" s="5">
+      <c r="A554" s="4">
         <v>44013</v>
       </c>
       <c r="B554" t="s">
@@ -17476,7 +17475,7 @@
       </c>
     </row>
     <row r="555" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A555" s="5">
+      <c r="A555" s="4">
         <v>44013</v>
       </c>
       <c r="B555" t="s">
@@ -17502,7 +17501,7 @@
       </c>
     </row>
     <row r="556" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A556" s="5">
+      <c r="A556" s="4">
         <v>44013</v>
       </c>
       <c r="B556" t="s">
@@ -17528,7 +17527,7 @@
       </c>
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A557" s="5">
+      <c r="A557" s="4">
         <v>44013</v>
       </c>
       <c r="B557" t="s">
@@ -17554,7 +17553,7 @@
       </c>
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A558" s="5">
+      <c r="A558" s="4">
         <v>44013</v>
       </c>
       <c r="B558" t="s">
@@ -17580,7 +17579,7 @@
       </c>
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A559" s="5">
+      <c r="A559" s="4">
         <v>44013</v>
       </c>
       <c r="B559" t="s">
@@ -17606,7 +17605,7 @@
       </c>
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A560" s="5">
+      <c r="A560" s="4">
         <v>44013</v>
       </c>
       <c r="B560" t="s">
@@ -17632,7 +17631,7 @@
       </c>
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A561" s="5">
+      <c r="A561" s="4">
         <v>44013</v>
       </c>
       <c r="B561" t="s">
@@ -17658,7 +17657,7 @@
       </c>
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A562" s="5">
+      <c r="A562" s="4">
         <v>44013</v>
       </c>
       <c r="B562" t="s">
@@ -17684,7 +17683,7 @@
       </c>
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A563" s="5">
+      <c r="A563" s="4">
         <v>44013</v>
       </c>
       <c r="B563" t="s">
@@ -17710,7 +17709,7 @@
       </c>
     </row>
     <row r="564" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A564" s="5">
+      <c r="A564" s="4">
         <v>44013</v>
       </c>
       <c r="B564" t="s">
@@ -17736,7 +17735,7 @@
       </c>
     </row>
     <row r="565" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A565" s="5">
+      <c r="A565" s="4">
         <v>44013</v>
       </c>
       <c r="B565" t="s">
@@ -17762,7 +17761,7 @@
       </c>
     </row>
     <row r="566" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A566" s="5">
+      <c r="A566" s="4">
         <v>44013</v>
       </c>
       <c r="B566" t="s">
@@ -17788,7 +17787,7 @@
       </c>
     </row>
     <row r="567" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A567" s="5">
+      <c r="A567" s="4">
         <v>44013</v>
       </c>
       <c r="B567" t="s">
@@ -17814,7 +17813,7 @@
       </c>
     </row>
     <row r="568" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A568" s="5">
+      <c r="A568" s="4">
         <v>44013</v>
       </c>
       <c r="B568" t="s">
@@ -17840,7 +17839,7 @@
       </c>
     </row>
     <row r="569" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A569" s="5">
+      <c r="A569" s="4">
         <v>44013</v>
       </c>
       <c r="B569" t="s">
@@ -17866,7 +17865,7 @@
       </c>
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A570" s="5">
+      <c r="A570" s="4">
         <v>44013</v>
       </c>
       <c r="B570" t="s">
@@ -17892,7 +17891,7 @@
       </c>
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A571" s="5">
+      <c r="A571" s="4">
         <v>44013</v>
       </c>
       <c r="B571" t="s">
@@ -17918,7 +17917,7 @@
       </c>
     </row>
     <row r="572" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A572" s="5">
+      <c r="A572" s="4">
         <v>44013</v>
       </c>
       <c r="B572" t="s">
@@ -17944,7 +17943,7 @@
       </c>
     </row>
     <row r="573" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A573" s="5">
+      <c r="A573" s="4">
         <v>44013</v>
       </c>
       <c r="B573" t="s">
@@ -17970,7 +17969,7 @@
       </c>
     </row>
     <row r="574" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A574" s="5">
+      <c r="A574" s="4">
         <v>44013</v>
       </c>
       <c r="B574" t="s">
@@ -17996,7 +17995,7 @@
       </c>
     </row>
     <row r="575" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A575" s="5">
+      <c r="A575" s="4">
         <v>44013</v>
       </c>
       <c r="B575" t="s">
@@ -18022,7 +18021,7 @@
       </c>
     </row>
     <row r="576" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A576" s="5">
+      <c r="A576" s="4">
         <v>44013</v>
       </c>
       <c r="B576" t="s">
@@ -18048,7 +18047,7 @@
       </c>
     </row>
     <row r="577" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A577" s="5">
+      <c r="A577" s="4">
         <v>44013</v>
       </c>
       <c r="B577" t="s">
@@ -18074,7 +18073,7 @@
       </c>
     </row>
     <row r="578" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A578" s="5">
+      <c r="A578" s="4">
         <v>44013</v>
       </c>
       <c r="B578" t="s">
@@ -18100,7 +18099,7 @@
       </c>
     </row>
     <row r="579" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A579" s="5">
+      <c r="A579" s="4">
         <v>44013</v>
       </c>
       <c r="B579" t="s">
@@ -18126,7 +18125,7 @@
       </c>
     </row>
     <row r="580" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A580" s="5">
+      <c r="A580" s="4">
         <v>44013</v>
       </c>
       <c r="B580" t="s">
@@ -18152,7 +18151,7 @@
       </c>
     </row>
     <row r="581" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A581" s="5">
+      <c r="A581" s="4">
         <v>44013</v>
       </c>
       <c r="B581" t="s">
@@ -18178,7 +18177,7 @@
       </c>
     </row>
     <row r="582" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A582" s="5">
+      <c r="A582" s="4">
         <v>44013</v>
       </c>
       <c r="B582" t="s">
@@ -18204,7 +18203,7 @@
       </c>
     </row>
     <row r="583" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A583" s="5">
+      <c r="A583" s="4">
         <v>44013</v>
       </c>
       <c r="B583" t="s">
@@ -18230,7 +18229,7 @@
       </c>
     </row>
     <row r="584" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A584" s="5">
+      <c r="A584" s="4">
         <v>44013</v>
       </c>
       <c r="B584" t="s">
@@ -18256,7 +18255,7 @@
       </c>
     </row>
     <row r="585" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A585" s="5">
+      <c r="A585" s="4">
         <v>44013</v>
       </c>
       <c r="B585" t="s">
@@ -18282,7 +18281,7 @@
       </c>
     </row>
     <row r="586" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A586" s="5">
+      <c r="A586" s="4">
         <v>44013</v>
       </c>
       <c r="B586" t="s">
@@ -18308,7 +18307,7 @@
       </c>
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A587" s="5">
+      <c r="A587" s="4">
         <v>44013</v>
       </c>
       <c r="B587" t="s">
@@ -18334,7 +18333,7 @@
       </c>
     </row>
     <row r="588" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A588" s="5">
+      <c r="A588" s="4">
         <v>44013</v>
       </c>
       <c r="B588" t="s">
@@ -18360,7 +18359,7 @@
       </c>
     </row>
     <row r="589" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A589" s="5">
+      <c r="A589" s="4">
         <v>44013</v>
       </c>
       <c r="B589" t="s">
@@ -18386,7 +18385,7 @@
       </c>
     </row>
     <row r="590" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A590" s="5">
+      <c r="A590" s="4">
         <v>44013</v>
       </c>
       <c r="B590" t="s">
@@ -18412,7 +18411,7 @@
       </c>
     </row>
     <row r="591" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A591" s="5">
+      <c r="A591" s="4">
         <v>44013</v>
       </c>
       <c r="B591" t="s">
@@ -18438,7 +18437,7 @@
       </c>
     </row>
     <row r="592" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A592" s="5">
+      <c r="A592" s="4">
         <v>44013</v>
       </c>
       <c r="B592" t="s">
@@ -18464,7 +18463,7 @@
       </c>
     </row>
     <row r="593" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A593" s="5">
+      <c r="A593" s="4">
         <v>44013</v>
       </c>
       <c r="B593" t="s">
@@ -18490,7 +18489,7 @@
       </c>
     </row>
     <row r="594" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A594" s="5">
+      <c r="A594" s="4">
         <v>44013</v>
       </c>
       <c r="B594" t="s">
@@ -18516,7 +18515,7 @@
       </c>
     </row>
     <row r="595" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A595" s="5">
+      <c r="A595" s="4">
         <v>44013</v>
       </c>
       <c r="B595" t="s">
@@ -18542,7 +18541,7 @@
       </c>
     </row>
     <row r="596" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A596" s="5">
+      <c r="A596" s="4">
         <v>44013</v>
       </c>
       <c r="B596" t="s">
@@ -18568,7 +18567,7 @@
       </c>
     </row>
     <row r="597" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A597" s="5">
+      <c r="A597" s="4">
         <v>44013</v>
       </c>
       <c r="B597" t="s">
@@ -18594,7 +18593,7 @@
       </c>
     </row>
     <row r="598" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A598" s="5">
+      <c r="A598" s="4">
         <v>44013</v>
       </c>
       <c r="B598" t="s">
@@ -18620,7 +18619,7 @@
       </c>
     </row>
     <row r="599" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A599" s="5">
+      <c r="A599" s="4">
         <v>44013</v>
       </c>
       <c r="B599" t="s">
@@ -18646,7 +18645,7 @@
       </c>
     </row>
     <row r="600" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A600" s="5">
+      <c r="A600" s="4">
         <v>44013</v>
       </c>
       <c r="B600" t="s">
@@ -18672,7 +18671,7 @@
       </c>
     </row>
     <row r="601" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A601" s="5">
+      <c r="A601" s="4">
         <v>44013</v>
       </c>
       <c r="B601" t="s">
@@ -18698,7 +18697,7 @@
       </c>
     </row>
     <row r="602" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A602" s="5">
+      <c r="A602" s="4">
         <v>44013</v>
       </c>
       <c r="B602" t="s">
@@ -18724,7 +18723,7 @@
       </c>
     </row>
     <row r="603" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A603" s="5">
+      <c r="A603" s="4">
         <v>44013</v>
       </c>
       <c r="B603" t="s">
@@ -18750,7 +18749,7 @@
       </c>
     </row>
     <row r="604" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A604" s="5">
+      <c r="A604" s="4">
         <v>44013</v>
       </c>
       <c r="B604" t="s">
@@ -18776,7 +18775,7 @@
       </c>
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A605" s="5">
+      <c r="A605" s="4">
         <v>44013</v>
       </c>
       <c r="B605" t="s">
@@ -18802,7 +18801,7 @@
       </c>
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A606" s="5">
+      <c r="A606" s="4">
         <v>44013</v>
       </c>
       <c r="B606" t="s">
@@ -18828,7 +18827,7 @@
       </c>
     </row>
     <row r="607" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A607" s="5">
+      <c r="A607" s="4">
         <v>44013</v>
       </c>
       <c r="B607" t="s">
@@ -18854,7 +18853,7 @@
       </c>
     </row>
     <row r="608" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A608" s="5">
+      <c r="A608" s="4">
         <v>44013</v>
       </c>
       <c r="B608" t="s">
@@ -18880,7 +18879,7 @@
       </c>
     </row>
     <row r="609" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A609" s="5">
+      <c r="A609" s="4">
         <v>44013</v>
       </c>
       <c r="B609" t="s">
@@ -18906,7 +18905,7 @@
       </c>
     </row>
     <row r="610" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A610" s="5">
+      <c r="A610" s="4">
         <v>44013</v>
       </c>
       <c r="B610" t="s">
@@ -18932,7 +18931,7 @@
       </c>
     </row>
     <row r="611" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A611" s="5">
+      <c r="A611" s="4">
         <v>44013</v>
       </c>
       <c r="B611" t="s">
@@ -18958,7 +18957,7 @@
       </c>
     </row>
     <row r="612" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A612" s="5">
+      <c r="A612" s="4">
         <v>44013</v>
       </c>
       <c r="B612" t="s">
@@ -18984,7 +18983,7 @@
       </c>
     </row>
     <row r="613" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A613" s="5">
+      <c r="A613" s="4">
         <v>44013</v>
       </c>
       <c r="B613" t="s">
@@ -19010,7 +19009,7 @@
       </c>
     </row>
     <row r="614" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A614" s="5">
+      <c r="A614" s="4">
         <v>44013</v>
       </c>
       <c r="B614" t="s">
@@ -19036,7 +19035,7 @@
       </c>
     </row>
     <row r="615" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A615" s="5">
+      <c r="A615" s="4">
         <v>44013</v>
       </c>
       <c r="B615" t="s">
@@ -19062,7 +19061,7 @@
       </c>
     </row>
     <row r="616" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A616" s="5">
+      <c r="A616" s="4">
         <v>44013</v>
       </c>
       <c r="B616" t="s">
@@ -19088,7 +19087,7 @@
       </c>
     </row>
     <row r="617" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A617" s="5">
+      <c r="A617" s="4">
         <v>44013</v>
       </c>
       <c r="B617" t="s">
@@ -19114,7 +19113,7 @@
       </c>
     </row>
     <row r="618" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A618" s="5">
+      <c r="A618" s="4">
         <v>44013</v>
       </c>
       <c r="B618" t="s">
@@ -19140,7 +19139,7 @@
       </c>
     </row>
     <row r="619" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A619" s="5">
+      <c r="A619" s="4">
         <v>44013</v>
       </c>
       <c r="B619" t="s">
@@ -19166,7 +19165,7 @@
       </c>
     </row>
     <row r="620" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A620" s="5">
+      <c r="A620" s="4">
         <v>44013</v>
       </c>
       <c r="B620" t="s">
@@ -19192,7 +19191,7 @@
       </c>
     </row>
     <row r="621" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A621" s="5">
+      <c r="A621" s="4">
         <v>44013</v>
       </c>
       <c r="B621" t="s">
@@ -19218,7 +19217,7 @@
       </c>
     </row>
     <row r="622" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A622" s="5">
+      <c r="A622" s="4">
         <v>44013</v>
       </c>
       <c r="B622" t="s">
@@ -19244,7 +19243,7 @@
       </c>
     </row>
     <row r="623" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A623" s="5">
+      <c r="A623" s="4">
         <v>44013</v>
       </c>
       <c r="B623" t="s">
@@ -19270,7 +19269,7 @@
       </c>
     </row>
     <row r="624" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A624" s="5">
+      <c r="A624" s="4">
         <v>44013</v>
       </c>
       <c r="B624" t="s">
@@ -19296,7 +19295,7 @@
       </c>
     </row>
     <row r="625" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A625" s="5">
+      <c r="A625" s="4">
         <v>44013</v>
       </c>
       <c r="B625" t="s">
@@ -19322,7 +19321,7 @@
       </c>
     </row>
     <row r="626" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A626" s="5">
+      <c r="A626" s="4">
         <v>44013</v>
       </c>
       <c r="B626" t="s">
@@ -19348,7 +19347,7 @@
       </c>
     </row>
     <row r="627" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A627" s="5">
+      <c r="A627" s="4">
         <v>44013</v>
       </c>
       <c r="B627" t="s">
@@ -19374,7 +19373,7 @@
       </c>
     </row>
     <row r="628" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A628" s="5">
+      <c r="A628" s="4">
         <v>44013</v>
       </c>
       <c r="B628" t="s">
@@ -19400,7 +19399,7 @@
       </c>
     </row>
     <row r="629" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A629" s="5">
+      <c r="A629" s="4">
         <v>44013</v>
       </c>
       <c r="B629" t="s">
@@ -19426,7 +19425,7 @@
       </c>
     </row>
     <row r="630" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A630" s="5">
+      <c r="A630" s="4">
         <v>44013</v>
       </c>
       <c r="B630" t="s">
@@ -19452,7 +19451,7 @@
       </c>
     </row>
     <row r="631" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A631" s="5">
+      <c r="A631" s="4">
         <v>44013</v>
       </c>
       <c r="B631" t="s">
@@ -19478,7 +19477,7 @@
       </c>
     </row>
     <row r="632" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A632" s="5">
+      <c r="A632" s="4">
         <v>44013</v>
       </c>
       <c r="B632" t="s">
@@ -19504,7 +19503,7 @@
       </c>
     </row>
     <row r="633" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A633" s="5">
+      <c r="A633" s="4">
         <v>44013</v>
       </c>
       <c r="B633" t="s">
@@ -19530,7 +19529,7 @@
       </c>
     </row>
     <row r="634" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A634" s="5">
+      <c r="A634" s="4">
         <v>44013</v>
       </c>
       <c r="B634" t="s">
@@ -19556,7 +19555,7 @@
       </c>
     </row>
     <row r="635" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A635" s="5">
+      <c r="A635" s="4">
         <v>44013</v>
       </c>
       <c r="B635" t="s">
@@ -19582,7 +19581,7 @@
       </c>
     </row>
     <row r="636" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A636" s="5">
+      <c r="A636" s="4">
         <v>44013</v>
       </c>
       <c r="B636" t="s">
@@ -19608,7 +19607,7 @@
       </c>
     </row>
     <row r="637" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A637" s="5">
+      <c r="A637" s="4">
         <v>44013</v>
       </c>
       <c r="B637" t="s">
@@ -19634,7 +19633,7 @@
       </c>
     </row>
     <row r="638" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A638" s="5">
+      <c r="A638" s="4">
         <v>44013</v>
       </c>
       <c r="B638" t="s">
@@ -19660,7 +19659,7 @@
       </c>
     </row>
     <row r="639" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A639" s="5">
+      <c r="A639" s="4">
         <v>44013</v>
       </c>
       <c r="B639" t="s">
@@ -19686,7 +19685,7 @@
       </c>
     </row>
     <row r="640" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A640" s="5">
+      <c r="A640" s="4">
         <v>44013</v>
       </c>
       <c r="B640" t="s">
@@ -19712,7 +19711,7 @@
       </c>
     </row>
     <row r="641" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A641" s="5">
+      <c r="A641" s="4">
         <v>44013</v>
       </c>
       <c r="B641" t="s">
@@ -19738,7 +19737,7 @@
       </c>
     </row>
     <row r="642" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A642" s="5">
+      <c r="A642" s="4">
         <v>44013</v>
       </c>
       <c r="B642" t="s">
@@ -19764,7 +19763,7 @@
       </c>
     </row>
     <row r="643" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A643" s="5">
+      <c r="A643" s="4">
         <v>44013</v>
       </c>
       <c r="B643" t="s">
@@ -19790,7 +19789,7 @@
       </c>
     </row>
     <row r="644" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A644" s="5">
+      <c r="A644" s="4">
         <v>44013</v>
       </c>
       <c r="B644" t="s">
@@ -19816,7 +19815,7 @@
       </c>
     </row>
     <row r="645" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A645" s="5">
+      <c r="A645" s="4">
         <v>44013</v>
       </c>
       <c r="B645" t="s">
@@ -19842,7 +19841,7 @@
       </c>
     </row>
     <row r="646" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A646" s="5">
+      <c r="A646" s="4">
         <v>44013</v>
       </c>
       <c r="B646" t="s">
@@ -19868,7 +19867,7 @@
       </c>
     </row>
     <row r="647" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A647" s="5">
+      <c r="A647" s="4">
         <v>44013</v>
       </c>
       <c r="B647" t="s">
@@ -19894,7 +19893,7 @@
       </c>
     </row>
     <row r="648" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A648" s="5">
+      <c r="A648" s="4">
         <v>44013</v>
       </c>
       <c r="B648" t="s">
@@ -19920,7 +19919,7 @@
       </c>
     </row>
     <row r="649" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A649" s="5">
+      <c r="A649" s="4">
         <v>44013</v>
       </c>
       <c r="B649" t="s">
@@ -19946,7 +19945,7 @@
       </c>
     </row>
     <row r="650" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A650" s="5">
+      <c r="A650" s="4">
         <v>44013</v>
       </c>
       <c r="B650" t="s">
@@ -19972,7 +19971,7 @@
       </c>
     </row>
     <row r="651" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A651" s="5">
+      <c r="A651" s="4">
         <v>44013</v>
       </c>
       <c r="B651" t="s">
@@ -19998,7 +19997,7 @@
       </c>
     </row>
     <row r="652" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A652" s="5">
+      <c r="A652" s="4">
         <v>44013</v>
       </c>
       <c r="B652" t="s">
@@ -20024,7 +20023,7 @@
       </c>
     </row>
     <row r="653" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A653" s="5">
+      <c r="A653" s="4">
         <v>44013</v>
       </c>
       <c r="B653" t="s">
@@ -20050,7 +20049,7 @@
       </c>
     </row>
     <row r="654" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A654" s="5">
+      <c r="A654" s="4">
         <v>44013</v>
       </c>
       <c r="B654" t="s">
@@ -20076,7 +20075,7 @@
       </c>
     </row>
     <row r="655" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A655" s="5">
+      <c r="A655" s="4">
         <v>44013</v>
       </c>
       <c r="B655" t="s">
@@ -20102,7 +20101,7 @@
       </c>
     </row>
     <row r="656" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A656" s="5">
+      <c r="A656" s="4">
         <v>44013</v>
       </c>
       <c r="B656" t="s">
@@ -20128,7 +20127,7 @@
       </c>
     </row>
     <row r="657" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A657" s="5">
+      <c r="A657" s="4">
         <v>44013</v>
       </c>
       <c r="B657" t="s">
@@ -20154,7 +20153,7 @@
       </c>
     </row>
     <row r="658" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A658" s="5">
+      <c r="A658" s="4">
         <v>44013</v>
       </c>
       <c r="B658" t="s">
@@ -20180,7 +20179,7 @@
       </c>
     </row>
     <row r="659" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A659" s="5">
+      <c r="A659" s="4">
         <v>44013</v>
       </c>
       <c r="B659" t="s">
@@ -20206,7 +20205,7 @@
       </c>
     </row>
     <row r="660" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A660" s="5">
+      <c r="A660" s="4">
         <v>44013</v>
       </c>
       <c r="B660" t="s">
@@ -20232,7 +20231,7 @@
       </c>
     </row>
     <row r="661" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A661" s="5">
+      <c r="A661" s="4">
         <v>44013</v>
       </c>
       <c r="B661" t="s">
@@ -20258,7 +20257,7 @@
       </c>
     </row>
     <row r="662" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A662" s="5">
+      <c r="A662" s="4">
         <v>44013</v>
       </c>
       <c r="B662" t="s">
@@ -20284,7 +20283,7 @@
       </c>
     </row>
     <row r="663" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A663" s="5">
+      <c r="A663" s="4">
         <v>44013</v>
       </c>
       <c r="B663" t="s">
@@ -20310,7 +20309,7 @@
       </c>
     </row>
     <row r="664" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A664" s="5">
+      <c r="A664" s="4">
         <v>44013</v>
       </c>
       <c r="B664" t="s">
@@ -20336,7 +20335,7 @@
       </c>
     </row>
     <row r="665" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A665" s="5">
+      <c r="A665" s="4">
         <v>44013</v>
       </c>
       <c r="B665" t="s">
@@ -20362,7 +20361,7 @@
       </c>
     </row>
     <row r="666" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A666" s="5">
+      <c r="A666" s="4">
         <v>44013</v>
       </c>
       <c r="B666" t="s">
@@ -20388,7 +20387,7 @@
       </c>
     </row>
     <row r="667" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A667" s="5">
+      <c r="A667" s="4">
         <v>44013</v>
       </c>
       <c r="B667" t="s">
@@ -20414,7 +20413,7 @@
       </c>
     </row>
     <row r="668" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A668" s="5">
+      <c r="A668" s="4">
         <v>44013</v>
       </c>
       <c r="B668" t="s">
@@ -20440,7 +20439,7 @@
       </c>
     </row>
     <row r="669" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A669" s="5">
+      <c r="A669" s="4">
         <v>44013</v>
       </c>
       <c r="B669" t="s">
@@ -20466,7 +20465,7 @@
       </c>
     </row>
     <row r="670" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A670" s="5">
+      <c r="A670" s="4">
         <v>44013</v>
       </c>
       <c r="B670" t="s">
@@ -20492,7 +20491,7 @@
       </c>
     </row>
     <row r="671" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A671" s="5">
+      <c r="A671" s="4">
         <v>44013</v>
       </c>
       <c r="B671" t="s">
@@ -20518,7 +20517,7 @@
       </c>
     </row>
     <row r="672" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A672" s="5">
+      <c r="A672" s="4">
         <v>44013</v>
       </c>
       <c r="B672" t="s">
@@ -20544,7 +20543,7 @@
       </c>
     </row>
     <row r="673" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A673" s="5">
+      <c r="A673" s="4">
         <v>44013</v>
       </c>
       <c r="B673" t="s">
@@ -20570,7 +20569,7 @@
       </c>
     </row>
     <row r="674" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A674" s="5">
+      <c r="A674" s="4">
         <v>44013</v>
       </c>
       <c r="B674" t="s">
@@ -20596,7 +20595,7 @@
       </c>
     </row>
     <row r="675" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A675" s="5">
+      <c r="A675" s="4">
         <v>44013</v>
       </c>
       <c r="B675" t="s">
@@ -20622,7 +20621,7 @@
       </c>
     </row>
     <row r="676" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A676" s="5">
+      <c r="A676" s="4">
         <v>44013</v>
       </c>
       <c r="B676" t="s">
@@ -20648,7 +20647,7 @@
       </c>
     </row>
     <row r="677" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A677" s="5">
+      <c r="A677" s="4">
         <v>44013</v>
       </c>
       <c r="B677" t="s">
@@ -20674,7 +20673,7 @@
       </c>
     </row>
     <row r="678" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A678" s="5">
+      <c r="A678" s="4">
         <v>44013</v>
       </c>
       <c r="B678" t="s">
@@ -20700,7 +20699,7 @@
       </c>
     </row>
     <row r="679" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A679" s="5">
+      <c r="A679" s="4">
         <v>44013</v>
       </c>
       <c r="B679" t="s">
@@ -20726,7 +20725,7 @@
       </c>
     </row>
     <row r="680" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A680" s="5">
+      <c r="A680" s="4">
         <v>44013</v>
       </c>
       <c r="B680" t="s">
@@ -20752,7 +20751,7 @@
       </c>
     </row>
     <row r="681" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A681" s="5">
+      <c r="A681" s="4">
         <v>44013</v>
       </c>
       <c r="B681" t="s">
@@ -20778,7 +20777,7 @@
       </c>
     </row>
     <row r="682" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A682" s="5">
+      <c r="A682" s="4">
         <v>44013</v>
       </c>
       <c r="B682" t="s">
@@ -20804,7 +20803,7 @@
       </c>
     </row>
     <row r="683" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A683" s="5">
+      <c r="A683" s="4">
         <v>44013</v>
       </c>
       <c r="B683" t="s">
@@ -20830,7 +20829,7 @@
       </c>
     </row>
     <row r="684" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A684" s="5">
+      <c r="A684" s="4">
         <v>44013</v>
       </c>
       <c r="B684" t="s">
@@ -20856,7 +20855,7 @@
       </c>
     </row>
     <row r="685" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A685" s="5">
+      <c r="A685" s="4">
         <v>44013</v>
       </c>
       <c r="B685" t="s">
@@ -20882,7 +20881,7 @@
       </c>
     </row>
     <row r="686" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A686" s="5">
+      <c r="A686" s="4">
         <v>44013</v>
       </c>
       <c r="B686" t="s">
@@ -20908,7 +20907,7 @@
       </c>
     </row>
     <row r="687" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A687" s="5">
+      <c r="A687" s="4">
         <v>44013</v>
       </c>
       <c r="B687" t="s">
@@ -20934,7 +20933,7 @@
       </c>
     </row>
     <row r="688" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A688" s="5">
+      <c r="A688" s="4">
         <v>44013</v>
       </c>
       <c r="B688" t="s">
@@ -20960,7 +20959,7 @@
       </c>
     </row>
     <row r="689" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A689" s="5">
+      <c r="A689" s="4">
         <v>44013</v>
       </c>
       <c r="B689" t="s">
@@ -20986,7 +20985,7 @@
       </c>
     </row>
     <row r="690" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A690" s="5">
+      <c r="A690" s="4">
         <v>44013</v>
       </c>
       <c r="B690" t="s">
@@ -21012,7 +21011,7 @@
       </c>
     </row>
     <row r="691" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A691" s="5">
+      <c r="A691" s="4">
         <v>44013</v>
       </c>
       <c r="B691" t="s">
@@ -21038,7 +21037,7 @@
       </c>
     </row>
     <row r="692" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A692" s="5">
+      <c r="A692" s="4">
         <v>44013</v>
       </c>
       <c r="B692" t="s">
@@ -21064,7 +21063,7 @@
       </c>
     </row>
     <row r="693" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A693" s="5">
+      <c r="A693" s="4">
         <v>44013</v>
       </c>
       <c r="B693" t="s">
@@ -21090,7 +21089,7 @@
       </c>
     </row>
     <row r="694" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A694" s="5">
+      <c r="A694" s="4">
         <v>44013</v>
       </c>
       <c r="B694" t="s">
@@ -21116,7 +21115,7 @@
       </c>
     </row>
     <row r="695" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A695" s="5">
+      <c r="A695" s="4">
         <v>44013</v>
       </c>
       <c r="B695" t="s">
@@ -21142,7 +21141,7 @@
       </c>
     </row>
     <row r="696" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A696" s="5">
+      <c r="A696" s="4">
         <v>44013</v>
       </c>
       <c r="B696" t="s">
@@ -21168,7 +21167,7 @@
       </c>
     </row>
     <row r="697" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A697" s="5">
+      <c r="A697" s="4">
         <v>44013</v>
       </c>
       <c r="B697" t="s">
@@ -21194,7 +21193,7 @@
       </c>
     </row>
     <row r="698" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A698" s="5">
+      <c r="A698" s="4">
         <v>44013</v>
       </c>
       <c r="B698" t="s">
@@ -21220,7 +21219,7 @@
       </c>
     </row>
     <row r="699" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A699" s="5">
+      <c r="A699" s="4">
         <v>44013</v>
       </c>
       <c r="B699" t="s">
@@ -21246,7 +21245,7 @@
       </c>
     </row>
     <row r="700" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A700" s="5">
+      <c r="A700" s="4">
         <v>44013</v>
       </c>
       <c r="B700" t="s">
@@ -21272,7 +21271,7 @@
       </c>
     </row>
     <row r="701" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A701" s="5">
+      <c r="A701" s="4">
         <v>44013</v>
       </c>
       <c r="B701" t="s">
@@ -21298,7 +21297,7 @@
       </c>
     </row>
     <row r="702" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A702" s="5">
+      <c r="A702" s="4">
         <v>44013</v>
       </c>
       <c r="B702" t="s">
@@ -21324,7 +21323,7 @@
       </c>
     </row>
     <row r="703" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A703" s="5">
+      <c r="A703" s="4">
         <v>44013</v>
       </c>
       <c r="B703" t="s">
@@ -21350,7 +21349,7 @@
       </c>
     </row>
     <row r="704" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A704" s="5">
+      <c r="A704" s="4">
         <v>44013</v>
       </c>
       <c r="B704" t="s">
@@ -21376,7 +21375,7 @@
       </c>
     </row>
     <row r="705" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A705" s="5">
+      <c r="A705" s="4">
         <v>44013</v>
       </c>
       <c r="B705" t="s">
@@ -21402,7 +21401,7 @@
       </c>
     </row>
     <row r="706" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A706" s="5">
+      <c r="A706" s="4">
         <v>44013</v>
       </c>
       <c r="B706" t="s">
@@ -21428,7 +21427,7 @@
       </c>
     </row>
     <row r="707" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A707" s="5">
+      <c r="A707" s="4">
         <v>44013</v>
       </c>
       <c r="B707" t="s">
@@ -21454,7 +21453,7 @@
       </c>
     </row>
     <row r="708" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A708" s="5">
+      <c r="A708" s="4">
         <v>44013</v>
       </c>
       <c r="B708" t="s">
@@ -21480,7 +21479,7 @@
       </c>
     </row>
     <row r="709" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A709" s="5">
+      <c r="A709" s="4">
         <v>44013</v>
       </c>
       <c r="B709" t="s">
@@ -21506,7 +21505,7 @@
       </c>
     </row>
     <row r="710" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A710" s="5">
+      <c r="A710" s="4">
         <v>44013</v>
       </c>
       <c r="B710" t="s">
@@ -21532,7 +21531,7 @@
       </c>
     </row>
     <row r="711" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A711" s="5">
+      <c r="A711" s="4">
         <v>44013</v>
       </c>
       <c r="B711" t="s">
@@ -21558,7 +21557,7 @@
       </c>
     </row>
     <row r="712" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A712" s="5">
+      <c r="A712" s="4">
         <v>44013</v>
       </c>
       <c r="B712" t="s">
@@ -21584,7 +21583,7 @@
       </c>
     </row>
     <row r="713" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A713" s="5">
+      <c r="A713" s="4">
         <v>44013</v>
       </c>
       <c r="B713" t="s">
@@ -21610,7 +21609,7 @@
       </c>
     </row>
     <row r="714" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A714" s="5">
+      <c r="A714" s="4">
         <v>44013</v>
       </c>
       <c r="B714" t="s">
@@ -21636,7 +21635,7 @@
       </c>
     </row>
     <row r="715" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A715" s="5">
+      <c r="A715" s="4">
         <v>44013</v>
       </c>
       <c r="B715" t="s">
@@ -21662,7 +21661,7 @@
       </c>
     </row>
     <row r="716" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A716" s="5">
+      <c r="A716" s="4">
         <v>44013</v>
       </c>
       <c r="B716" t="s">
@@ -21688,7 +21687,7 @@
       </c>
     </row>
     <row r="717" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A717" s="5">
+      <c r="A717" s="4">
         <v>44013</v>
       </c>
       <c r="B717" t="s">
@@ -21714,7 +21713,7 @@
       </c>
     </row>
     <row r="718" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A718" s="5">
+      <c r="A718" s="4">
         <v>44013</v>
       </c>
       <c r="B718" t="s">
@@ -21740,7 +21739,7 @@
       </c>
     </row>
     <row r="719" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A719" s="5">
+      <c r="A719" s="4">
         <v>44013</v>
       </c>
       <c r="B719" t="s">
@@ -21766,7 +21765,7 @@
       </c>
     </row>
     <row r="720" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A720" s="5">
+      <c r="A720" s="4">
         <v>44013</v>
       </c>
       <c r="B720" t="s">
@@ -21792,7 +21791,7 @@
       </c>
     </row>
     <row r="721" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A721" s="5">
+      <c r="A721" s="4">
         <v>44013</v>
       </c>
       <c r="B721" t="s">
@@ -21818,7 +21817,7 @@
       </c>
     </row>
     <row r="722" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A722" s="5">
+      <c r="A722" s="4">
         <v>44013</v>
       </c>
       <c r="B722" t="s">
@@ -21844,7 +21843,7 @@
       </c>
     </row>
     <row r="723" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A723" s="5">
+      <c r="A723" s="4">
         <v>44013</v>
       </c>
       <c r="B723" t="s">
@@ -21870,7 +21869,7 @@
       </c>
     </row>
     <row r="724" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A724" s="5">
+      <c r="A724" s="4">
         <v>44013</v>
       </c>
       <c r="B724" t="s">
@@ -21896,7 +21895,7 @@
       </c>
     </row>
     <row r="725" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A725" s="5">
+      <c r="A725" s="4">
         <v>44013</v>
       </c>
       <c r="B725" t="s">
@@ -21922,7 +21921,7 @@
       </c>
     </row>
     <row r="726" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A726" s="5">
+      <c r="A726" s="4">
         <v>44013</v>
       </c>
       <c r="B726" t="s">
@@ -21948,7 +21947,7 @@
       </c>
     </row>
     <row r="727" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A727" s="5">
+      <c r="A727" s="4">
         <v>44013</v>
       </c>
       <c r="B727" t="s">
@@ -21974,7 +21973,7 @@
       </c>
     </row>
     <row r="728" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A728" s="5">
+      <c r="A728" s="4">
         <v>44013</v>
       </c>
       <c r="B728" t="s">
@@ -22000,7 +21999,7 @@
       </c>
     </row>
     <row r="729" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A729" s="5">
+      <c r="A729" s="4">
         <v>44013</v>
       </c>
       <c r="B729" t="s">
@@ -22026,7 +22025,7 @@
       </c>
     </row>
     <row r="730" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A730" s="5">
+      <c r="A730" s="4">
         <v>44013</v>
       </c>
       <c r="B730" t="s">
@@ -22052,7 +22051,7 @@
       </c>
     </row>
     <row r="731" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A731" s="5">
+      <c r="A731" s="4">
         <v>44013</v>
       </c>
       <c r="B731" t="s">
@@ -22078,7 +22077,7 @@
       </c>
     </row>
     <row r="732" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A732" s="5">
+      <c r="A732" s="4">
         <v>44013</v>
       </c>
       <c r="B732" t="s">
@@ -22104,7 +22103,7 @@
       </c>
     </row>
     <row r="733" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A733" s="5">
+      <c r="A733" s="4">
         <v>44013</v>
       </c>
       <c r="B733" t="s">
@@ -22130,7 +22129,7 @@
       </c>
     </row>
     <row r="734" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A734" s="5">
+      <c r="A734" s="4">
         <v>44013</v>
       </c>
       <c r="B734" t="s">
@@ -22156,7 +22155,7 @@
       </c>
     </row>
     <row r="735" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A735" s="5">
+      <c r="A735" s="4">
         <v>44013</v>
       </c>
       <c r="B735" t="s">
@@ -22182,7 +22181,7 @@
       </c>
     </row>
     <row r="736" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A736" s="5">
+      <c r="A736" s="4">
         <v>44013</v>
       </c>
       <c r="B736" t="s">
@@ -22208,7 +22207,7 @@
       </c>
     </row>
     <row r="737" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A737" s="5">
+      <c r="A737" s="4">
         <v>44013</v>
       </c>
       <c r="B737" t="s">
@@ -22234,7 +22233,7 @@
       </c>
     </row>
     <row r="738" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A738" s="5">
+      <c r="A738" s="4">
         <v>44013</v>
       </c>
       <c r="B738" t="s">
@@ -22260,7 +22259,7 @@
       </c>
     </row>
     <row r="739" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A739" s="5">
+      <c r="A739" s="4">
         <v>44013</v>
       </c>
       <c r="B739" t="s">
@@ -22286,7 +22285,7 @@
       </c>
     </row>
     <row r="740" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A740" s="5">
+      <c r="A740" s="4">
         <v>44013</v>
       </c>
       <c r="B740" t="s">
@@ -22312,7 +22311,7 @@
       </c>
     </row>
     <row r="741" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A741" s="5">
+      <c r="A741" s="4">
         <v>44013</v>
       </c>
       <c r="B741" t="s">
@@ -22338,7 +22337,7 @@
       </c>
     </row>
     <row r="742" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A742" s="5">
+      <c r="A742" s="4">
         <v>44013</v>
       </c>
       <c r="B742" t="s">
@@ -22364,7 +22363,7 @@
       </c>
     </row>
     <row r="743" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A743" s="5">
+      <c r="A743" s="4">
         <v>44013</v>
       </c>
       <c r="B743" t="s">
@@ -22390,7 +22389,7 @@
       </c>
     </row>
     <row r="744" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A744" s="5">
+      <c r="A744" s="4">
         <v>44013</v>
       </c>
       <c r="B744" t="s">
@@ -22416,7 +22415,7 @@
       </c>
     </row>
     <row r="745" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A745" s="5">
+      <c r="A745" s="4">
         <v>44013</v>
       </c>
       <c r="B745" t="s">
@@ -22442,7 +22441,7 @@
       </c>
     </row>
     <row r="746" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A746" s="5">
+      <c r="A746" s="4">
         <v>44013</v>
       </c>
       <c r="B746" t="s">
@@ -22468,7 +22467,7 @@
       </c>
     </row>
     <row r="747" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A747" s="5">
+      <c r="A747" s="4">
         <v>44013</v>
       </c>
       <c r="B747" t="s">
@@ -22494,7 +22493,7 @@
       </c>
     </row>
     <row r="748" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A748" s="5">
+      <c r="A748" s="4">
         <v>44013</v>
       </c>
       <c r="B748" t="s">
@@ -22520,7 +22519,7 @@
       </c>
     </row>
     <row r="749" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A749" s="5">
+      <c r="A749" s="4">
         <v>44013</v>
       </c>
       <c r="B749" t="s">
@@ -22546,7 +22545,7 @@
       </c>
     </row>
     <row r="750" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A750" s="5">
+      <c r="A750" s="4">
         <v>44013</v>
       </c>
       <c r="B750" t="s">
@@ -22572,7 +22571,7 @@
       </c>
     </row>
     <row r="751" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A751" s="5">
+      <c r="A751" s="4">
         <v>44013</v>
       </c>
       <c r="B751" t="s">
@@ -22598,7 +22597,7 @@
       </c>
     </row>
     <row r="752" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A752" s="5">
+      <c r="A752" s="4">
         <v>44013</v>
       </c>
       <c r="B752" t="s">
@@ -22624,7 +22623,7 @@
       </c>
     </row>
     <row r="753" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A753" s="5">
+      <c r="A753" s="4">
         <v>44013</v>
       </c>
       <c r="B753" t="s">
@@ -22650,7 +22649,7 @@
       </c>
     </row>
     <row r="754" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A754" s="5">
+      <c r="A754" s="4">
         <v>44013</v>
       </c>
       <c r="B754" t="s">
@@ -22676,7 +22675,7 @@
       </c>
     </row>
     <row r="755" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A755" s="5">
+      <c r="A755" s="4">
         <v>44013</v>
       </c>
       <c r="B755" t="s">
@@ -22702,7 +22701,7 @@
       </c>
     </row>
     <row r="756" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A756" s="5">
+      <c r="A756" s="4">
         <v>44013</v>
       </c>
       <c r="B756" t="s">
@@ -22728,7 +22727,7 @@
       </c>
     </row>
     <row r="757" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A757" s="5">
+      <c r="A757" s="4">
         <v>44013</v>
       </c>
       <c r="B757" t="s">
@@ -22754,7 +22753,7 @@
       </c>
     </row>
     <row r="758" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A758" s="5">
+      <c r="A758" s="4">
         <v>44013</v>
       </c>
       <c r="B758" t="s">
@@ -22780,7 +22779,7 @@
       </c>
     </row>
     <row r="759" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A759" s="5">
+      <c r="A759" s="4">
         <v>44013</v>
       </c>
       <c r="B759" t="s">
@@ -22806,7 +22805,7 @@
       </c>
     </row>
     <row r="760" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A760" s="5">
+      <c r="A760" s="4">
         <v>44013</v>
       </c>
       <c r="B760" t="s">
@@ -22832,7 +22831,7 @@
       </c>
     </row>
     <row r="761" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A761" s="5">
+      <c r="A761" s="4">
         <v>44013</v>
       </c>
       <c r="B761" t="s">
@@ -22858,7 +22857,7 @@
       </c>
     </row>
     <row r="762" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A762" s="5">
+      <c r="A762" s="4">
         <v>44013</v>
       </c>
       <c r="B762" t="s">
@@ -22884,7 +22883,7 @@
       </c>
     </row>
     <row r="763" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A763" s="5">
+      <c r="A763" s="4">
         <v>44013</v>
       </c>
       <c r="B763" t="s">
@@ -22910,7 +22909,7 @@
       </c>
     </row>
     <row r="764" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A764" s="5">
+      <c r="A764" s="4">
         <v>44013</v>
       </c>
       <c r="B764" t="s">
@@ -22936,7 +22935,7 @@
       </c>
     </row>
     <row r="765" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A765" s="5">
+      <c r="A765" s="4">
         <v>44013</v>
       </c>
       <c r="B765" t="s">
@@ -22962,7 +22961,7 @@
       </c>
     </row>
     <row r="766" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A766" s="5">
+      <c r="A766" s="4">
         <v>44013</v>
       </c>
       <c r="B766" t="s">
@@ -22988,7 +22987,7 @@
       </c>
     </row>
     <row r="767" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A767" s="5">
+      <c r="A767" s="4">
         <v>44013</v>
       </c>
       <c r="B767" t="s">
@@ -23014,7 +23013,7 @@
       </c>
     </row>
     <row r="768" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A768" s="5">
+      <c r="A768" s="4">
         <v>44013</v>
       </c>
       <c r="B768" t="s">
@@ -23040,7 +23039,7 @@
       </c>
     </row>
     <row r="769" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A769" s="5">
+      <c r="A769" s="4">
         <v>44013</v>
       </c>
       <c r="B769" t="s">
@@ -23066,7 +23065,7 @@
       </c>
     </row>
     <row r="770" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A770" s="5">
+      <c r="A770" s="4">
         <v>44013</v>
       </c>
       <c r="B770" t="s">
@@ -23092,7 +23091,7 @@
       </c>
     </row>
     <row r="771" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A771" s="5">
+      <c r="A771" s="4">
         <v>44013</v>
       </c>
       <c r="B771" t="s">
@@ -23118,7 +23117,7 @@
       </c>
     </row>
     <row r="772" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A772" s="5">
+      <c r="A772" s="4">
         <v>44013</v>
       </c>
       <c r="B772" t="s">
@@ -23144,7 +23143,7 @@
       </c>
     </row>
     <row r="773" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A773" s="5">
+      <c r="A773" s="4">
         <v>44013</v>
       </c>
       <c r="B773" t="s">
@@ -23170,7 +23169,7 @@
       </c>
     </row>
     <row r="774" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A774" s="5">
+      <c r="A774" s="4">
         <v>44013</v>
       </c>
       <c r="B774" t="s">
@@ -23196,7 +23195,7 @@
       </c>
     </row>
     <row r="775" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A775" s="5">
+      <c r="A775" s="4">
         <v>44013</v>
       </c>
       <c r="B775" t="s">
@@ -23222,7 +23221,7 @@
       </c>
     </row>
     <row r="776" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A776" s="5">
+      <c r="A776" s="4">
         <v>44013</v>
       </c>
       <c r="B776" t="s">
@@ -23248,7 +23247,7 @@
       </c>
     </row>
     <row r="777" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A777" s="5">
+      <c r="A777" s="4">
         <v>44013</v>
       </c>
       <c r="B777" t="s">
@@ -23274,7 +23273,7 @@
       </c>
     </row>
     <row r="778" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A778" s="5">
+      <c r="A778" s="4">
         <v>44013</v>
       </c>
       <c r="B778" t="s">
@@ -23300,7 +23299,7 @@
       </c>
     </row>
     <row r="779" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A779" s="5">
+      <c r="A779" s="4">
         <v>44013</v>
       </c>
       <c r="B779" t="s">
@@ -23326,7 +23325,7 @@
       </c>
     </row>
     <row r="780" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A780" s="5">
+      <c r="A780" s="4">
         <v>44013</v>
       </c>
       <c r="B780" t="s">
@@ -23352,7 +23351,7 @@
       </c>
     </row>
     <row r="781" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A781" s="5">
+      <c r="A781" s="4">
         <v>44013</v>
       </c>
       <c r="B781" t="s">
@@ -23378,7 +23377,7 @@
       </c>
     </row>
     <row r="782" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A782" s="5">
+      <c r="A782" s="4">
         <v>44013</v>
       </c>
       <c r="B782" t="s">
@@ -23404,7 +23403,7 @@
       </c>
     </row>
     <row r="783" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A783" s="5">
+      <c r="A783" s="4">
         <v>44013</v>
       </c>
       <c r="B783" t="s">
@@ -23430,7 +23429,7 @@
       </c>
     </row>
     <row r="784" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A784" s="5">
+      <c r="A784" s="4">
         <v>44013</v>
       </c>
       <c r="B784" t="s">
@@ -23456,7 +23455,7 @@
       </c>
     </row>
     <row r="785" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A785" s="5">
+      <c r="A785" s="4">
         <v>44013</v>
       </c>
       <c r="B785" t="s">
@@ -23482,7 +23481,7 @@
       </c>
     </row>
     <row r="786" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A786" s="5">
+      <c r="A786" s="4">
         <v>44013</v>
       </c>
       <c r="B786" t="s">
@@ -23508,7 +23507,7 @@
       </c>
     </row>
     <row r="787" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A787" s="5">
+      <c r="A787" s="4">
         <v>44013</v>
       </c>
       <c r="B787" t="s">
@@ -23534,7 +23533,7 @@
       </c>
     </row>
     <row r="788" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A788" s="5">
+      <c r="A788" s="4">
         <v>44013</v>
       </c>
       <c r="B788" t="s">
@@ -23560,7 +23559,7 @@
       </c>
     </row>
     <row r="789" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A789" s="5">
+      <c r="A789" s="4">
         <v>44013</v>
       </c>
       <c r="B789" t="s">
@@ -23586,7 +23585,7 @@
       </c>
     </row>
     <row r="790" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A790" s="5">
+      <c r="A790" s="4">
         <v>44013</v>
       </c>
       <c r="B790" t="s">
@@ -23612,7 +23611,7 @@
       </c>
     </row>
     <row r="791" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A791" s="5">
+      <c r="A791" s="4">
         <v>44013</v>
       </c>
       <c r="B791" t="s">
@@ -23638,7 +23637,7 @@
       </c>
     </row>
     <row r="792" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A792" s="5">
+      <c r="A792" s="4">
         <v>44013</v>
       </c>
       <c r="B792" t="s">
@@ -23664,7 +23663,7 @@
       </c>
     </row>
     <row r="793" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A793" s="5">
+      <c r="A793" s="4">
         <v>44013</v>
       </c>
       <c r="B793" t="s">
@@ -23690,7 +23689,7 @@
       </c>
     </row>
     <row r="794" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A794" s="5">
+      <c r="A794" s="4">
         <v>44013</v>
       </c>
       <c r="B794" t="s">
@@ -23716,7 +23715,7 @@
       </c>
     </row>
     <row r="795" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A795" s="5">
+      <c r="A795" s="4">
         <v>44013</v>
       </c>
       <c r="B795" t="s">
@@ -23742,7 +23741,7 @@
       </c>
     </row>
     <row r="796" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A796" s="5">
+      <c r="A796" s="4">
         <v>44013</v>
       </c>
       <c r="B796" t="s">
@@ -23768,7 +23767,7 @@
       </c>
     </row>
     <row r="797" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A797" s="5">
+      <c r="A797" s="4">
         <v>44013</v>
       </c>
       <c r="B797" t="s">
@@ -23794,7 +23793,7 @@
       </c>
     </row>
     <row r="798" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A798" s="5">
+      <c r="A798" s="4">
         <v>44013</v>
       </c>
       <c r="B798" t="s">
@@ -23820,7 +23819,7 @@
       </c>
     </row>
     <row r="799" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A799" s="5">
+      <c r="A799" s="4">
         <v>44013</v>
       </c>
       <c r="B799" t="s">
@@ -23846,7 +23845,7 @@
       </c>
     </row>
     <row r="800" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A800" s="5">
+      <c r="A800" s="4">
         <v>44013</v>
       </c>
       <c r="B800" t="s">
@@ -23872,7 +23871,7 @@
       </c>
     </row>
     <row r="801" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A801" s="5">
+      <c r="A801" s="4">
         <v>44013</v>
       </c>
       <c r="B801" t="s">
@@ -23898,7 +23897,7 @@
       </c>
     </row>
     <row r="802" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A802" s="5">
+      <c r="A802" s="4">
         <v>44013</v>
       </c>
       <c r="B802" t="s">
@@ -23924,7 +23923,7 @@
       </c>
     </row>
     <row r="803" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A803" s="5">
+      <c r="A803" s="4">
         <v>44013</v>
       </c>
       <c r="B803" t="s">
@@ -23950,7 +23949,7 @@
       </c>
     </row>
     <row r="804" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A804" s="5">
+      <c r="A804" s="4">
         <v>44013</v>
       </c>
       <c r="B804" t="s">
@@ -23976,7 +23975,7 @@
       </c>
     </row>
     <row r="805" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A805" s="5">
+      <c r="A805" s="4">
         <v>44013</v>
       </c>
       <c r="B805" t="s">
@@ -24002,7 +24001,7 @@
       </c>
     </row>
     <row r="806" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A806" s="5">
+      <c r="A806" s="4">
         <v>44013</v>
       </c>
       <c r="B806" t="s">
@@ -24028,7 +24027,7 @@
       </c>
     </row>
     <row r="807" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A807" s="5">
+      <c r="A807" s="4">
         <v>44013</v>
       </c>
       <c r="B807" t="s">
@@ -24054,7 +24053,7 @@
       </c>
     </row>
     <row r="808" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A808" s="5">
+      <c r="A808" s="4">
         <v>44013</v>
       </c>
       <c r="B808" t="s">
@@ -24080,7 +24079,7 @@
       </c>
     </row>
     <row r="809" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A809" s="5">
+      <c r="A809" s="4">
         <v>44013</v>
       </c>
       <c r="B809" t="s">
@@ -24106,7 +24105,7 @@
       </c>
     </row>
     <row r="810" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A810" s="5">
+      <c r="A810" s="4">
         <v>44013</v>
       </c>
       <c r="B810" t="s">
@@ -24132,7 +24131,7 @@
       </c>
     </row>
     <row r="811" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A811" s="5">
+      <c r="A811" s="4">
         <v>44013</v>
       </c>
       <c r="B811" t="s">
@@ -24158,7 +24157,7 @@
       </c>
     </row>
     <row r="812" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A812" s="5">
+      <c r="A812" s="4">
         <v>44013</v>
       </c>
       <c r="B812" t="s">
@@ -24184,7 +24183,7 @@
       </c>
     </row>
     <row r="813" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A813" s="5">
+      <c r="A813" s="4">
         <v>44013</v>
       </c>
       <c r="B813" t="s">
@@ -24210,7 +24209,7 @@
       </c>
     </row>
     <row r="814" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A814" s="5">
+      <c r="A814" s="4">
         <v>44013</v>
       </c>
       <c r="B814" t="s">
@@ -24236,7 +24235,7 @@
       </c>
     </row>
     <row r="815" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A815" s="5">
+      <c r="A815" s="4">
         <v>44013</v>
       </c>
       <c r="B815" t="s">
@@ -24262,7 +24261,7 @@
       </c>
     </row>
     <row r="816" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A816" s="5">
+      <c r="A816" s="4">
         <v>44013</v>
       </c>
       <c r="B816" t="s">
@@ -24288,7 +24287,7 @@
       </c>
     </row>
     <row r="817" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A817" s="5">
+      <c r="A817" s="4">
         <v>44013</v>
       </c>
       <c r="B817" t="s">
@@ -24314,7 +24313,7 @@
       </c>
     </row>
     <row r="818" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A818" s="5">
+      <c r="A818" s="4">
         <v>44013</v>
       </c>
       <c r="B818" t="s">
@@ -24340,7 +24339,7 @@
       </c>
     </row>
     <row r="819" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A819" s="5">
+      <c r="A819" s="4">
         <v>44013</v>
       </c>
       <c r="B819" t="s">
@@ -24366,7 +24365,7 @@
       </c>
     </row>
     <row r="820" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A820" s="5">
+      <c r="A820" s="4">
         <v>44013</v>
       </c>
       <c r="B820" t="s">
@@ -24392,7 +24391,7 @@
       </c>
     </row>
     <row r="821" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A821" s="5">
+      <c r="A821" s="4">
         <v>44013</v>
       </c>
       <c r="B821" t="s">
@@ -24418,7 +24417,7 @@
       </c>
     </row>
     <row r="822" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A822" s="5">
+      <c r="A822" s="4">
         <v>44013</v>
       </c>
       <c r="B822" t="s">
@@ -24444,7 +24443,7 @@
       </c>
     </row>
     <row r="823" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A823" s="5">
+      <c r="A823" s="4">
         <v>44013</v>
       </c>
       <c r="B823" t="s">
@@ -24470,7 +24469,7 @@
       </c>
     </row>
     <row r="824" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A824" s="5">
+      <c r="A824" s="4">
         <v>44013</v>
       </c>
       <c r="B824" t="s">
@@ -24496,7 +24495,7 @@
       </c>
     </row>
     <row r="825" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A825" s="5">
+      <c r="A825" s="4">
         <v>44013</v>
       </c>
       <c r="B825" t="s">
@@ -24522,7 +24521,7 @@
       </c>
     </row>
     <row r="826" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A826" s="5">
+      <c r="A826" s="4">
         <v>44013</v>
       </c>
       <c r="B826" t="s">
@@ -24548,7 +24547,7 @@
       </c>
     </row>
     <row r="827" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A827" s="5">
+      <c r="A827" s="4">
         <v>44013</v>
       </c>
       <c r="B827" t="s">
@@ -24574,7 +24573,7 @@
       </c>
     </row>
     <row r="828" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A828" s="5">
+      <c r="A828" s="4">
         <v>44013</v>
       </c>
       <c r="B828" t="s">
@@ -24600,7 +24599,7 @@
       </c>
     </row>
     <row r="829" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A829" s="5">
+      <c r="A829" s="4">
         <v>44013</v>
       </c>
       <c r="B829" t="s">
@@ -24626,7 +24625,7 @@
       </c>
     </row>
     <row r="830" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A830" s="5">
+      <c r="A830" s="4">
         <v>44013</v>
       </c>
       <c r="B830" t="s">
@@ -24652,7 +24651,7 @@
       </c>
     </row>
     <row r="831" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A831" s="5">
+      <c r="A831" s="4">
         <v>44013</v>
       </c>
       <c r="B831" t="s">
@@ -24678,7 +24677,7 @@
       </c>
     </row>
     <row r="832" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A832" s="5">
+      <c r="A832" s="4">
         <v>44013</v>
       </c>
       <c r="B832" t="s">
@@ -24704,7 +24703,7 @@
       </c>
     </row>
     <row r="833" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A833" s="5">
+      <c r="A833" s="4">
         <v>44013</v>
       </c>
       <c r="B833" t="s">
@@ -24730,7 +24729,7 @@
       </c>
     </row>
     <row r="834" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A834" s="5">
+      <c r="A834" s="4">
         <v>44013</v>
       </c>
       <c r="B834" t="s">
@@ -24756,7 +24755,7 @@
       </c>
     </row>
     <row r="835" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A835" s="5">
+      <c r="A835" s="4">
         <v>44013</v>
       </c>
       <c r="B835" t="s">
@@ -24782,7 +24781,7 @@
       </c>
     </row>
     <row r="836" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A836" s="5">
+      <c r="A836" s="4">
         <v>44013</v>
       </c>
       <c r="B836" t="s">
@@ -24808,7 +24807,7 @@
       </c>
     </row>
     <row r="837" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A837" s="5">
+      <c r="A837" s="4">
         <v>44013</v>
       </c>
       <c r="B837" t="s">
@@ -24834,7 +24833,7 @@
       </c>
     </row>
     <row r="838" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A838" s="5">
+      <c r="A838" s="4">
         <v>44013</v>
       </c>
       <c r="B838" t="s">
@@ -24860,7 +24859,7 @@
       </c>
     </row>
     <row r="839" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A839" s="5">
+      <c r="A839" s="4">
         <v>44013</v>
       </c>
       <c r="B839" t="s">
@@ -24886,7 +24885,7 @@
       </c>
     </row>
     <row r="840" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A840" s="5">
+      <c r="A840" s="4">
         <v>44013</v>
       </c>
       <c r="B840" t="s">
@@ -24912,7 +24911,7 @@
       </c>
     </row>
     <row r="841" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A841" s="5">
+      <c r="A841" s="4">
         <v>44013</v>
       </c>
       <c r="B841" t="s">
@@ -24938,7 +24937,7 @@
       </c>
     </row>
     <row r="842" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A842" s="5">
+      <c r="A842" s="4">
         <v>44013</v>
       </c>
       <c r="B842" t="s">
@@ -24964,7 +24963,7 @@
       </c>
     </row>
     <row r="843" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A843" s="5">
+      <c r="A843" s="4">
         <v>44013</v>
       </c>
       <c r="B843" t="s">
@@ -24990,7 +24989,7 @@
       </c>
     </row>
     <row r="844" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A844" s="5">
+      <c r="A844" s="4">
         <v>44013</v>
       </c>
       <c r="B844" t="s">
@@ -25016,7 +25015,7 @@
       </c>
     </row>
     <row r="845" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A845" s="5">
+      <c r="A845" s="4">
         <v>44013</v>
       </c>
       <c r="B845" t="s">
@@ -25042,7 +25041,7 @@
       </c>
     </row>
     <row r="846" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A846" s="5">
+      <c r="A846" s="4">
         <v>44013</v>
       </c>
       <c r="B846" t="s">
@@ -25068,7 +25067,7 @@
       </c>
     </row>
     <row r="847" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A847" s="5">
+      <c r="A847" s="4">
         <v>44013</v>
       </c>
       <c r="B847" t="s">
@@ -25094,7 +25093,7 @@
       </c>
     </row>
     <row r="848" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A848" s="5">
+      <c r="A848" s="4">
         <v>44013</v>
       </c>
       <c r="B848" t="s">
@@ -25120,7 +25119,7 @@
       </c>
     </row>
     <row r="849" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A849" s="5">
+      <c r="A849" s="4">
         <v>44013</v>
       </c>
       <c r="B849" t="s">
@@ -25146,7 +25145,7 @@
       </c>
     </row>
     <row r="850" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A850" s="5">
+      <c r="A850" s="4">
         <v>44013</v>
       </c>
       <c r="B850" t="s">
@@ -25172,7 +25171,7 @@
       </c>
     </row>
     <row r="851" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A851" s="5">
+      <c r="A851" s="4">
         <v>44013</v>
       </c>
       <c r="B851" t="s">
@@ -25198,7 +25197,7 @@
       </c>
     </row>
     <row r="852" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A852" s="5">
+      <c r="A852" s="4">
         <v>44013</v>
       </c>
       <c r="B852" t="s">
@@ -25224,7 +25223,7 @@
       </c>
     </row>
     <row r="853" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A853" s="5">
+      <c r="A853" s="4">
         <v>44013</v>
       </c>
       <c r="B853" t="s">
@@ -25250,7 +25249,7 @@
       </c>
     </row>
     <row r="854" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A854" s="5">
+      <c r="A854" s="4">
         <v>44013</v>
       </c>
       <c r="B854" t="s">
@@ -25276,7 +25275,7 @@
       </c>
     </row>
     <row r="855" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A855" s="5">
+      <c r="A855" s="4">
         <v>44013</v>
       </c>
       <c r="B855" t="s">
@@ -25302,7 +25301,7 @@
       </c>
     </row>
     <row r="856" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A856" s="5">
+      <c r="A856" s="4">
         <v>44013</v>
       </c>
       <c r="B856" t="s">
@@ -25328,7 +25327,7 @@
       </c>
     </row>
     <row r="857" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A857" s="5">
+      <c r="A857" s="4">
         <v>44013</v>
       </c>
       <c r="B857" t="s">
@@ -25354,7 +25353,7 @@
       </c>
     </row>
     <row r="858" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A858" s="5">
+      <c r="A858" s="4">
         <v>44013</v>
       </c>
       <c r="B858" t="s">
@@ -25380,7 +25379,7 @@
       </c>
     </row>
     <row r="859" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A859" s="5">
+      <c r="A859" s="4">
         <v>44013</v>
       </c>
       <c r="B859" t="s">
@@ -25406,7 +25405,7 @@
       </c>
     </row>
     <row r="860" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A860" s="5">
+      <c r="A860" s="4">
         <v>44013</v>
       </c>
       <c r="B860" t="s">
@@ -25432,7 +25431,7 @@
       </c>
     </row>
     <row r="861" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A861" s="5">
+      <c r="A861" s="4">
         <v>44013</v>
       </c>
       <c r="B861" t="s">
@@ -25458,7 +25457,7 @@
       </c>
     </row>
     <row r="862" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A862" s="5">
+      <c r="A862" s="4">
         <v>44013</v>
       </c>
       <c r="B862" t="s">
@@ -25484,7 +25483,7 @@
       </c>
     </row>
     <row r="863" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A863" s="5">
+      <c r="A863" s="4">
         <v>44013</v>
       </c>
       <c r="B863" t="s">
@@ -25510,7 +25509,7 @@
       </c>
     </row>
     <row r="864" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A864" s="5">
+      <c r="A864" s="4">
         <v>44013</v>
       </c>
       <c r="B864" t="s">
@@ -25536,7 +25535,7 @@
       </c>
     </row>
     <row r="865" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A865" s="5">
+      <c r="A865" s="4">
         <v>44013</v>
       </c>
       <c r="B865" t="s">
@@ -25562,7 +25561,7 @@
       </c>
     </row>
     <row r="866" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A866" s="5">
+      <c r="A866" s="4">
         <v>44013</v>
       </c>
       <c r="B866" t="s">
@@ -25588,531 +25587,370 @@
       </c>
     </row>
     <row r="867" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A867" s="2"/>
-      <c r="C867" s="4"/>
+      <c r="C867" s="3"/>
     </row>
     <row r="868" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A868" s="2"/>
-      <c r="C868" s="4"/>
+      <c r="C868" s="3"/>
     </row>
     <row r="869" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A869" s="2"/>
-      <c r="C869" s="4"/>
+      <c r="C869" s="3"/>
     </row>
     <row r="870" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A870" s="2"/>
-      <c r="C870" s="4"/>
+      <c r="C870" s="3"/>
     </row>
     <row r="871" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A871" s="2"/>
-      <c r="C871" s="4"/>
+      <c r="C871" s="3"/>
     </row>
     <row r="872" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A872" s="2"/>
-      <c r="C872" s="4"/>
+      <c r="C872" s="3"/>
     </row>
     <row r="873" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A873" s="2"/>
-      <c r="C873" s="4"/>
+      <c r="C873" s="3"/>
     </row>
     <row r="874" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A874" s="2"/>
-      <c r="C874" s="4"/>
+      <c r="C874" s="3"/>
     </row>
     <row r="875" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A875" s="2"/>
-      <c r="C875" s="4"/>
+      <c r="C875" s="3"/>
     </row>
     <row r="876" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A876" s="2"/>
-      <c r="C876" s="4"/>
+      <c r="C876" s="3"/>
     </row>
     <row r="877" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A877" s="2"/>
-      <c r="C877" s="4"/>
+      <c r="C877" s="3"/>
     </row>
     <row r="878" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A878" s="2"/>
-      <c r="C878" s="4"/>
+      <c r="C878" s="3"/>
     </row>
     <row r="879" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A879" s="2"/>
-      <c r="C879" s="4"/>
+      <c r="C879" s="3"/>
     </row>
     <row r="880" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A880" s="2"/>
-      <c r="C880" s="4"/>
-    </row>
-    <row r="881" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A881" s="2"/>
-      <c r="C881" s="4"/>
-    </row>
-    <row r="882" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A882" s="2"/>
-      <c r="C882" s="4"/>
-    </row>
-    <row r="883" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A883" s="2"/>
-      <c r="C883" s="4"/>
-    </row>
-    <row r="884" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A884" s="2"/>
-      <c r="C884" s="4"/>
-    </row>
-    <row r="885" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A885" s="2"/>
-      <c r="C885" s="4"/>
-    </row>
-    <row r="886" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A886" s="2"/>
-      <c r="C886" s="4"/>
-    </row>
-    <row r="887" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A887" s="2"/>
-      <c r="C887" s="4"/>
-    </row>
-    <row r="888" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A888" s="2"/>
-      <c r="C888" s="4"/>
-    </row>
-    <row r="889" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A889" s="2"/>
-      <c r="C889" s="4"/>
-    </row>
-    <row r="890" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A890" s="2"/>
-      <c r="C890" s="4"/>
-    </row>
-    <row r="891" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A891" s="2"/>
-      <c r="C891" s="4"/>
-    </row>
-    <row r="892" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A892" s="2"/>
-      <c r="C892" s="4"/>
-    </row>
-    <row r="893" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A893" s="2"/>
-      <c r="C893" s="4"/>
-    </row>
-    <row r="894" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A894" s="2"/>
-      <c r="C894" s="4"/>
-    </row>
-    <row r="895" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A895" s="2"/>
-      <c r="C895" s="4"/>
-    </row>
-    <row r="896" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A896" s="2"/>
-      <c r="C896" s="4"/>
-    </row>
-    <row r="897" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A897" s="2"/>
-      <c r="C897" s="4"/>
-    </row>
-    <row r="898" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A898" s="2"/>
-      <c r="C898" s="4"/>
-    </row>
-    <row r="899" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A899" s="2"/>
-      <c r="C899" s="4"/>
-    </row>
-    <row r="900" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A900" s="2"/>
-      <c r="C900" s="4"/>
-    </row>
-    <row r="901" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A901" s="2"/>
-      <c r="C901" s="4"/>
-    </row>
-    <row r="902" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A902" s="2"/>
-      <c r="C902" s="4"/>
-    </row>
-    <row r="903" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A903" s="2"/>
-      <c r="C903" s="4"/>
-    </row>
-    <row r="904" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A904" s="2"/>
-      <c r="C904" s="4"/>
-    </row>
-    <row r="905" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A905" s="2"/>
-      <c r="C905" s="4"/>
-    </row>
-    <row r="906" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A906" s="2"/>
-      <c r="C906" s="4"/>
-    </row>
-    <row r="907" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A907" s="2"/>
-      <c r="C907" s="4"/>
-    </row>
-    <row r="908" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A908" s="2"/>
-      <c r="C908" s="4"/>
-    </row>
-    <row r="909" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A909" s="2"/>
-      <c r="C909" s="4"/>
-    </row>
-    <row r="910" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A910" s="2"/>
-      <c r="C910" s="4"/>
-    </row>
-    <row r="911" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A911" s="2"/>
-      <c r="C911" s="4"/>
-    </row>
-    <row r="912" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A912" s="2"/>
-      <c r="C912" s="4"/>
-    </row>
-    <row r="913" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A913" s="2"/>
-      <c r="C913" s="4"/>
-    </row>
-    <row r="914" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A914" s="2"/>
-      <c r="C914" s="4"/>
-    </row>
-    <row r="915" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A915" s="2"/>
-      <c r="C915" s="4"/>
-    </row>
-    <row r="916" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A916" s="2"/>
-      <c r="C916" s="4"/>
-    </row>
-    <row r="917" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A917" s="2"/>
-      <c r="C917" s="4"/>
-    </row>
-    <row r="918" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A918" s="2"/>
-      <c r="C918" s="4"/>
-    </row>
-    <row r="919" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A919" s="2"/>
-      <c r="C919" s="4"/>
-    </row>
-    <row r="920" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A920" s="2"/>
-      <c r="C920" s="4"/>
-    </row>
-    <row r="921" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A921" s="2"/>
-      <c r="C921" s="4"/>
-    </row>
-    <row r="922" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A922" s="2"/>
-      <c r="C922" s="4"/>
-    </row>
-    <row r="923" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A923" s="2"/>
-      <c r="C923" s="4"/>
-    </row>
-    <row r="924" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A924" s="2"/>
-      <c r="C924" s="4"/>
-    </row>
-    <row r="925" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A925" s="2"/>
-      <c r="C925" s="4"/>
-    </row>
-    <row r="926" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A926" s="2"/>
-      <c r="C926" s="4"/>
-    </row>
-    <row r="927" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A927" s="2"/>
-      <c r="C927" s="4"/>
-    </row>
-    <row r="928" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A928" s="2"/>
-      <c r="C928" s="4"/>
-    </row>
-    <row r="929" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A929" s="2"/>
-      <c r="C929" s="4"/>
-    </row>
-    <row r="930" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A930" s="2"/>
-      <c r="C930" s="4"/>
-    </row>
-    <row r="931" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A931" s="2"/>
-      <c r="C931" s="4"/>
-    </row>
-    <row r="932" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A932" s="2"/>
-      <c r="C932" s="4"/>
-    </row>
-    <row r="933" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A933" s="2"/>
-      <c r="C933" s="4"/>
-    </row>
-    <row r="934" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A934" s="2"/>
-      <c r="C934" s="4"/>
-    </row>
-    <row r="935" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A935" s="2"/>
-      <c r="C935" s="4"/>
-    </row>
-    <row r="936" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A936" s="2"/>
-      <c r="C936" s="4"/>
-    </row>
-    <row r="937" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A937" s="2"/>
-      <c r="C937" s="4"/>
-    </row>
-    <row r="938" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A938" s="2"/>
-      <c r="C938" s="4"/>
-    </row>
-    <row r="939" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A939" s="2"/>
-      <c r="C939" s="4"/>
-    </row>
-    <row r="940" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A940" s="2"/>
-      <c r="C940" s="4"/>
-    </row>
-    <row r="941" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A941" s="2"/>
-      <c r="C941" s="4"/>
-    </row>
-    <row r="942" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A942" s="2"/>
-      <c r="C942" s="4"/>
-    </row>
-    <row r="943" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A943" s="2"/>
-      <c r="C943" s="4"/>
-    </row>
-    <row r="944" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A944" s="2"/>
-      <c r="C944" s="4"/>
-    </row>
-    <row r="945" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A945" s="2"/>
-      <c r="C945" s="4"/>
-    </row>
-    <row r="946" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A946" s="2"/>
-      <c r="C946" s="4"/>
-    </row>
-    <row r="947" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A947" s="2"/>
-      <c r="C947" s="4"/>
-    </row>
-    <row r="948" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A948" s="2"/>
-      <c r="C948" s="4"/>
-    </row>
-    <row r="949" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A949" s="2"/>
-      <c r="C949" s="4"/>
-    </row>
-    <row r="950" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A950" s="2"/>
-      <c r="C950" s="4"/>
-    </row>
-    <row r="951" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A951" s="2"/>
-      <c r="C951" s="4"/>
-    </row>
-    <row r="952" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A952" s="2"/>
-      <c r="C952" s="4"/>
-    </row>
-    <row r="953" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A953" s="2"/>
-      <c r="C953" s="4"/>
-    </row>
-    <row r="954" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A954" s="2"/>
-      <c r="C954" s="4"/>
-    </row>
-    <row r="955" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A955" s="2"/>
-      <c r="C955" s="4"/>
-    </row>
-    <row r="956" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A956" s="2"/>
-      <c r="C956" s="4"/>
-    </row>
-    <row r="957" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A957" s="2"/>
-      <c r="C957" s="4"/>
-    </row>
-    <row r="958" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A958" s="2"/>
-      <c r="C958" s="4"/>
-    </row>
-    <row r="959" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A959" s="2"/>
-      <c r="C959" s="4"/>
-    </row>
-    <row r="960" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A960" s="2"/>
-      <c r="C960" s="4"/>
-    </row>
-    <row r="961" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A961" s="2"/>
-      <c r="C961" s="4"/>
-    </row>
-    <row r="962" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A962" s="2"/>
-      <c r="C962" s="4"/>
-    </row>
-    <row r="963" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A963" s="2"/>
-      <c r="C963" s="4"/>
-    </row>
-    <row r="964" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A964" s="2"/>
-      <c r="C964" s="4"/>
-    </row>
-    <row r="965" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A965" s="2"/>
-      <c r="C965" s="4"/>
-    </row>
-    <row r="966" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A966" s="2"/>
-      <c r="C966" s="4"/>
-    </row>
-    <row r="967" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A967" s="2"/>
-      <c r="C967" s="4"/>
-    </row>
-    <row r="968" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A968" s="2"/>
-      <c r="C968" s="4"/>
-    </row>
-    <row r="969" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A969" s="2"/>
-      <c r="C969" s="4"/>
-    </row>
-    <row r="970" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A970" s="2"/>
-      <c r="C970" s="4"/>
-    </row>
-    <row r="971" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A971" s="2"/>
-      <c r="C971" s="4"/>
-    </row>
-    <row r="972" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A972" s="2"/>
-      <c r="C972" s="4"/>
-    </row>
-    <row r="973" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A973" s="2"/>
-      <c r="C973" s="4"/>
-    </row>
-    <row r="974" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A974" s="2"/>
-      <c r="C974" s="4"/>
-    </row>
-    <row r="975" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A975" s="2"/>
-      <c r="C975" s="4"/>
-    </row>
-    <row r="976" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A976" s="2"/>
-      <c r="C976" s="4"/>
-    </row>
-    <row r="977" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A977" s="2"/>
-      <c r="C977" s="4"/>
-    </row>
-    <row r="978" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A978" s="2"/>
-      <c r="C978" s="4"/>
-    </row>
-    <row r="979" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A979" s="2"/>
-      <c r="C979" s="4"/>
-    </row>
-    <row r="980" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A980" s="2"/>
-      <c r="C980" s="4"/>
-    </row>
-    <row r="981" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A981" s="2"/>
-      <c r="C981" s="4"/>
-    </row>
-    <row r="982" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A982" s="2"/>
-      <c r="C982" s="4"/>
-    </row>
-    <row r="983" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A983" s="2"/>
-      <c r="C983" s="4"/>
-    </row>
-    <row r="984" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A984" s="2"/>
-      <c r="C984" s="4"/>
-    </row>
-    <row r="985" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A985" s="2"/>
-      <c r="C985" s="4"/>
-    </row>
-    <row r="986" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A986" s="2"/>
-      <c r="C986" s="4"/>
-    </row>
-    <row r="987" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A987" s="2"/>
-      <c r="C987" s="4"/>
-    </row>
-    <row r="988" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A988" s="2"/>
-      <c r="C988" s="4"/>
-    </row>
-    <row r="989" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A989" s="2"/>
-    </row>
-    <row r="990" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A990" s="2"/>
-    </row>
-    <row r="991" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A991" s="2"/>
-    </row>
-    <row r="992" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A992" s="2"/>
-    </row>
-    <row r="993" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A993" s="2"/>
-    </row>
-    <row r="994" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A994" s="2"/>
-    </row>
-    <row r="995" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A995" s="2"/>
-    </row>
-    <row r="996" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A996" s="2"/>
-    </row>
-    <row r="997" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A997" s="2"/>
-    </row>
-    <row r="998" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A998" s="2"/>
-    </row>
-    <row r="999" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A999" s="2"/>
-    </row>
-    <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1000" s="2"/>
-    </row>
-    <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1001" s="2"/>
+      <c r="C880" s="3"/>
+    </row>
+    <row r="881" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C881" s="3"/>
+    </row>
+    <row r="882" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C882" s="3"/>
+    </row>
+    <row r="883" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C883" s="3"/>
+    </row>
+    <row r="884" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C884" s="3"/>
+    </row>
+    <row r="885" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C885" s="3"/>
+    </row>
+    <row r="886" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C886" s="3"/>
+    </row>
+    <row r="887" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C887" s="3"/>
+    </row>
+    <row r="888" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C888" s="3"/>
+    </row>
+    <row r="889" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C889" s="3"/>
+    </row>
+    <row r="890" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C890" s="3"/>
+    </row>
+    <row r="891" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C891" s="3"/>
+    </row>
+    <row r="892" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C892" s="3"/>
+    </row>
+    <row r="893" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C893" s="3"/>
+    </row>
+    <row r="894" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C894" s="3"/>
+    </row>
+    <row r="895" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C895" s="3"/>
+    </row>
+    <row r="896" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C896" s="3"/>
+    </row>
+    <row r="897" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C897" s="3"/>
+    </row>
+    <row r="898" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C898" s="3"/>
+    </row>
+    <row r="899" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C899" s="3"/>
+    </row>
+    <row r="900" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C900" s="3"/>
+    </row>
+    <row r="901" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C901" s="3"/>
+    </row>
+    <row r="902" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C902" s="3"/>
+    </row>
+    <row r="903" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C903" s="3"/>
+    </row>
+    <row r="904" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C904" s="3"/>
+    </row>
+    <row r="905" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C905" s="3"/>
+    </row>
+    <row r="906" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C906" s="3"/>
+    </row>
+    <row r="907" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C907" s="3"/>
+    </row>
+    <row r="908" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C908" s="3"/>
+    </row>
+    <row r="909" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C909" s="3"/>
+    </row>
+    <row r="910" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C910" s="3"/>
+    </row>
+    <row r="911" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C911" s="3"/>
+    </row>
+    <row r="912" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C912" s="3"/>
+    </row>
+    <row r="913" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C913" s="3"/>
+    </row>
+    <row r="914" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C914" s="3"/>
+    </row>
+    <row r="915" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C915" s="3"/>
+    </row>
+    <row r="916" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C916" s="3"/>
+    </row>
+    <row r="917" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C917" s="3"/>
+    </row>
+    <row r="918" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C918" s="3"/>
+    </row>
+    <row r="919" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C919" s="3"/>
+    </row>
+    <row r="920" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C920" s="3"/>
+    </row>
+    <row r="921" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C921" s="3"/>
+    </row>
+    <row r="922" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C922" s="3"/>
+    </row>
+    <row r="923" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C923" s="3"/>
+    </row>
+    <row r="924" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C924" s="3"/>
+    </row>
+    <row r="925" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C925" s="3"/>
+    </row>
+    <row r="926" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C926" s="3"/>
+    </row>
+    <row r="927" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C927" s="3"/>
+    </row>
+    <row r="928" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C928" s="3"/>
+    </row>
+    <row r="929" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C929" s="3"/>
+    </row>
+    <row r="930" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C930" s="3"/>
+    </row>
+    <row r="931" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C931" s="3"/>
+    </row>
+    <row r="932" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C932" s="3"/>
+    </row>
+    <row r="933" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C933" s="3"/>
+    </row>
+    <row r="934" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C934" s="3"/>
+    </row>
+    <row r="935" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C935" s="3"/>
+    </row>
+    <row r="936" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C936" s="3"/>
+    </row>
+    <row r="937" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C937" s="3"/>
+    </row>
+    <row r="938" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C938" s="3"/>
+    </row>
+    <row r="939" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C939" s="3"/>
+    </row>
+    <row r="940" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C940" s="3"/>
+    </row>
+    <row r="941" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C941" s="3"/>
+    </row>
+    <row r="942" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C942" s="3"/>
+    </row>
+    <row r="943" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C943" s="3"/>
+    </row>
+    <row r="944" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C944" s="3"/>
+    </row>
+    <row r="945" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C945" s="3"/>
+    </row>
+    <row r="946" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C946" s="3"/>
+    </row>
+    <row r="947" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C947" s="3"/>
+    </row>
+    <row r="948" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C948" s="3"/>
+    </row>
+    <row r="949" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C949" s="3"/>
+    </row>
+    <row r="950" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C950" s="3"/>
+    </row>
+    <row r="951" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C951" s="3"/>
+    </row>
+    <row r="952" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C952" s="3"/>
+    </row>
+    <row r="953" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C953" s="3"/>
+    </row>
+    <row r="954" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C954" s="3"/>
+    </row>
+    <row r="955" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C955" s="3"/>
+    </row>
+    <row r="956" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C956" s="3"/>
+    </row>
+    <row r="957" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C957" s="3"/>
+    </row>
+    <row r="958" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C958" s="3"/>
+    </row>
+    <row r="959" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C959" s="3"/>
+    </row>
+    <row r="960" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C960" s="3"/>
+    </row>
+    <row r="961" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C961" s="3"/>
+    </row>
+    <row r="962" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C962" s="3"/>
+    </row>
+    <row r="963" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C963" s="3"/>
+    </row>
+    <row r="964" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C964" s="3"/>
+    </row>
+    <row r="965" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C965" s="3"/>
+    </row>
+    <row r="966" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C966" s="3"/>
+    </row>
+    <row r="967" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C967" s="3"/>
+    </row>
+    <row r="968" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C968" s="3"/>
+    </row>
+    <row r="969" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C969" s="3"/>
+    </row>
+    <row r="970" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C970" s="3"/>
+    </row>
+    <row r="971" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C971" s="3"/>
+    </row>
+    <row r="972" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C972" s="3"/>
+    </row>
+    <row r="973" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C973" s="3"/>
+    </row>
+    <row r="974" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C974" s="3"/>
+    </row>
+    <row r="975" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C975" s="3"/>
+    </row>
+    <row r="976" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C976" s="3"/>
+    </row>
+    <row r="977" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C977" s="3"/>
+    </row>
+    <row r="978" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C978" s="3"/>
+    </row>
+    <row r="979" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C979" s="3"/>
+    </row>
+    <row r="980" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C980" s="3"/>
+    </row>
+    <row r="981" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C981" s="3"/>
+    </row>
+    <row r="982" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C982" s="3"/>
+    </row>
+    <row r="983" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C983" s="3"/>
+    </row>
+    <row r="984" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C984" s="3"/>
+    </row>
+    <row r="985" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C985" s="3"/>
+    </row>
+    <row r="986" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C986" s="3"/>
+    </row>
+    <row r="987" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C987" s="3"/>
+    </row>
+    <row r="988" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C988" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
